--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1060215.846225779</v>
+        <v>1058705.961023018</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6305555.314691222</v>
+        <v>6305555.314691223</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>421.6572003268881</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -667,13 +667,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>348.8584147991471</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.2890026418373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -882,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>135.6194430173003</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.8906583810979</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>418.9739502356786</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>37.65555071235391</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>63.40306846943431</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>402.3743020448612</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1299,7 +1299,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>25.45235703611021</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>48.28427699583371</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150.1823896625569</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>396.5836142728854</v>
@@ -1423,19 +1423,19 @@
         <v>64.57991364897666</v>
       </c>
       <c r="T11" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>87.03730360603484</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1466,7 +1466,7 @@
         <v>84.10307333667062</v>
       </c>
       <c r="H12" t="n">
-        <v>37.18311833486297</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.063515415806574</v>
+        <v>5.06351541580657</v>
       </c>
       <c r="S13" t="n">
         <v>151.3932686552011</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>396.5836142728854</v>
       </c>
       <c r="H14" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>64.57991364897666</v>
       </c>
       <c r="T14" t="n">
-        <v>59.68987909207807</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>346.3710031027551</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>84.10307333667062</v>
       </c>
       <c r="H15" t="n">
-        <v>37.18311833486297</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I16" t="n">
-        <v>76.97845642156406</v>
+        <v>76.97845642156405</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.063515415806574</v>
+        <v>5.063515415807501</v>
       </c>
       <c r="S16" t="n">
         <v>151.3932686552011</v>
@@ -1821,7 +1821,7 @@
         <v>241.8869156041224</v>
       </c>
       <c r="U16" t="n">
-        <v>275.629091126407</v>
+        <v>275.629091126406</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1849,19 +1849,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>378.5490688762704</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>214.3635095521018</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>367.4772147581244</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1940,7 +1940,7 @@
         <v>84.10307333667062</v>
       </c>
       <c r="H18" t="n">
-        <v>37.18311833486297</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.063515415807051</v>
+        <v>5.063515415806567</v>
       </c>
       <c r="S19" t="n">
         <v>151.3932686552011</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.5324925443828</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>46.33124055620012</v>
       </c>
       <c r="G20" t="n">
         <v>396.5836142728854</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>64.57991364897666</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U20" t="n">
         <v>256.5660605529466</v>
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2177,7 +2177,7 @@
         <v>84.10307333667062</v>
       </c>
       <c r="H21" t="n">
-        <v>37.18311833486297</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I22" t="n">
-        <v>76.97845642156406</v>
+        <v>76.97845642156474</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.063515415806574</v>
+        <v>5.06351541580657</v>
       </c>
       <c r="S22" t="n">
         <v>151.3932686552011</v>
@@ -2371,13 +2371,13 @@
         <v>64.57991364897666</v>
       </c>
       <c r="T23" t="n">
-        <v>214.3635095521012</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U23" t="n">
         <v>256.5660605529467</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655114</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2414,7 +2414,7 @@
         <v>84.10307333667062</v>
       </c>
       <c r="H24" t="n">
-        <v>37.18311833486297</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I25" t="n">
-        <v>76.97845642156406</v>
+        <v>76.97845642156405</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.063515415806574</v>
+        <v>5.063515415807051</v>
       </c>
       <c r="S25" t="n">
-        <v>151.3932686552</v>
+        <v>151.3932686552011</v>
       </c>
       <c r="T25" t="n">
         <v>241.8869156041224</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6290911264066</v>
+        <v>275.629091126406</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2611,7 +2611,7 @@
         <v>214.3635095521018</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5660605529466</v>
+        <v>256.5660605529467</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2651,7 +2651,7 @@
         <v>84.10307333667062</v>
       </c>
       <c r="H27" t="n">
-        <v>37.18311833486297</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I28" t="n">
-        <v>76.97845642156406</v>
+        <v>76.97845642156405</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.0635154158066</v>
+        <v>5.063515415807051</v>
       </c>
       <c r="S28" t="n">
         <v>151.3932686552011</v>
@@ -2800,7 +2800,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932887</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -2888,7 +2888,7 @@
         <v>84.10307333667062</v>
       </c>
       <c r="H30" t="n">
-        <v>37.18311833486297</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I31" t="n">
-        <v>76.97845642156406</v>
+        <v>76.97845642156405</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.0635154158066</v>
+        <v>5.063515415807051</v>
       </c>
       <c r="S31" t="n">
         <v>151.3932686552011</v>
       </c>
       <c r="T31" t="n">
-        <v>241.886915604122</v>
+        <v>241.8869156041224</v>
       </c>
       <c r="U31" t="n">
         <v>275.629091126406</v>
@@ -3085,7 +3085,7 @@
         <v>214.3635095521018</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5660605529466</v>
+        <v>256.5660605529467</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3125,7 +3125,7 @@
         <v>84.10307333667062</v>
       </c>
       <c r="H33" t="n">
-        <v>37.18311833486297</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I34" t="n">
-        <v>76.97845642156476</v>
+        <v>76.97845642156405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.063515415806574</v>
+        <v>5.063515415807051</v>
       </c>
       <c r="S34" t="n">
         <v>151.3932686552011</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3274,7 +3274,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>380.4109928501043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3283,7 +3283,7 @@
         <v>396.5836142728854</v>
       </c>
       <c r="H35" t="n">
-        <v>278.0434075022746</v>
+        <v>249.0288970059632</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>64.57991364897666</v>
       </c>
       <c r="T35" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3334,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>84.10307333667062</v>
       </c>
       <c r="H36" t="n">
-        <v>37.18311833486297</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I37" t="n">
-        <v>76.97845642156472</v>
+        <v>76.97845642156405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.063515415806574</v>
+        <v>5.063515415807051</v>
       </c>
       <c r="S37" t="n">
         <v>151.3932686552011</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>305.3550587288572</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3517,10 +3517,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H38" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U38" t="n">
         <v>256.5660605529466</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>310.212448234674</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3599,7 +3599,7 @@
         <v>84.10307333667062</v>
       </c>
       <c r="H39" t="n">
-        <v>37.18311833486297</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I40" t="n">
-        <v>76.97845642156406</v>
+        <v>76.97845642156405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.063515415806574</v>
+        <v>5.063515415807051</v>
       </c>
       <c r="S40" t="n">
         <v>151.3932686552011</v>
       </c>
       <c r="T40" t="n">
-        <v>241.8869156041229</v>
+        <v>241.8869156041224</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6290911264066</v>
+        <v>275.629091126406</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3748,13 +3748,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>12.59589638679185</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>394.6935520528716</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3836,7 +3836,7 @@
         <v>84.10307333667062</v>
       </c>
       <c r="H42" t="n">
-        <v>37.18311833486297</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978621</v>
       </c>
       <c r="G43" t="n">
         <v>163.5764026524035</v>
       </c>
       <c r="H43" t="n">
-        <v>135.3116756443246</v>
+        <v>135.3116756443242</v>
       </c>
       <c r="I43" t="n">
-        <v>76.97845642156406</v>
+        <v>76.97845642156405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.063515415806574</v>
+        <v>5.06351541580657</v>
       </c>
       <c r="S43" t="n">
         <v>151.3932686552011</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3988,13 +3988,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>338.7513549122967</v>
       </c>
       <c r="H44" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>64.57991364897666</v>
       </c>
       <c r="T44" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>57.00937290246765</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>84.10307333667062</v>
       </c>
       <c r="H45" t="n">
-        <v>37.18311833486297</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I46" t="n">
-        <v>76.97845642156406</v>
+        <v>76.97845642156405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1571.10956023096</v>
+        <v>847.0638324846691</v>
       </c>
       <c r="C2" t="n">
-        <v>1537.007491454787</v>
+        <v>812.9617637084964</v>
       </c>
       <c r="D2" t="n">
-        <v>1505.138110669636</v>
+        <v>781.092382923345</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.75587349878</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
         <v>323.4906125312521</v>
@@ -4330,25 +4330,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.614446335406</v>
+        <v>1277.225916111165</v>
       </c>
       <c r="Y2" t="n">
-        <v>1593.368726675464</v>
+        <v>1272.980196451223</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4409,25 +4409,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="O3" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="P3" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.603617826933</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="C4" t="n">
-        <v>122.603617826933</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="D4" t="n">
-        <v>122.603617826933</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4497,10 +4497,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>1005.1071068273</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>733.0807024135913</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="X4" t="n">
-        <v>487.6889477470038</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="Y4" t="n">
-        <v>260.2692770611121</v>
+        <v>542.1199904125018</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1343.932506313052</v>
+        <v>545.2299034413993</v>
       </c>
       <c r="C5" t="n">
-        <v>915.3508320503199</v>
+        <v>511.1278346652267</v>
       </c>
       <c r="D5" t="n">
-        <v>486.7691577875882</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E5" t="n">
         <v>58.18748352485655</v>
@@ -4567,7 +4567,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K5" t="n">
         <v>453.9965675465116</v>
@@ -4579,13 +4579,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q5" t="n">
         <v>1528.02936532736</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W5" t="n">
-        <v>1476.301152404893</v>
+        <v>990.8772529665349</v>
       </c>
       <c r="X5" t="n">
-        <v>1461.199093024608</v>
+        <v>571.7347895458456</v>
       </c>
       <c r="Y5" t="n">
-        <v>1456.953373364666</v>
+        <v>567.4890698859031</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>1011.135564714323</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>838.5738531975477</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>672.6958603990704</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>502.9378566498077</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>326.2308026115638</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>160.6395276373915</v>
       </c>
       <c r="H7" t="n">
         <v>122.603617826933</v>
@@ -4731,10 +4731,10 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M7" t="n">
-        <v>395.2818083374338</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N7" t="n">
         <v>761.8145120199619</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="X7" t="n">
-        <v>1532.240118618369</v>
+        <v>1430.373854119202</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1202.95418343331</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.4179192429278</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4807,22 +4807,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W8" t="n">
-        <v>1033.105672808467</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="X8" t="n">
-        <v>1018.003613428182</v>
+        <v>180.3981599919276</v>
       </c>
       <c r="Y8" t="n">
-        <v>609.7174897278356</v>
+        <v>176.1524403319851</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>60.00734176206595</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K9" t="n">
-        <v>60.00734176206595</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L9" t="n">
-        <v>60.00734176206595</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M9" t="n">
-        <v>319.8519551513677</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N9" t="n">
         <v>739.9048540962709</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398.0928244684872</v>
+        <v>630.8013258914481</v>
       </c>
       <c r="C10" t="n">
-        <v>225.5311129517121</v>
+        <v>458.239614374673</v>
       </c>
       <c r="D10" t="n">
-        <v>59.65312015323482</v>
+        <v>292.3616215761957</v>
       </c>
       <c r="E10" t="n">
-        <v>59.65312015323482</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F10" t="n">
-        <v>59.65312015323482</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G10" t="n">
-        <v>59.65312015323482</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H10" t="n">
-        <v>59.65312015323482</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4965,19 +4965,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M10" t="n">
-        <v>540.5762527112014</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N10" t="n">
-        <v>960.6291516561047</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O10" t="n">
-        <v>1380.298400881886</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
         <v>1528.990655216085</v>
@@ -4992,22 +4992,22 @@
         <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U10" t="n">
-        <v>1429.886162364244</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V10" t="n">
-        <v>1142.930654234675</v>
+        <v>1388.81010065622</v>
       </c>
       <c r="W10" t="n">
-        <v>870.9042498209665</v>
+        <v>1116.783696242511</v>
       </c>
       <c r="X10" t="n">
-        <v>625.5124951543789</v>
+        <v>871.3919415759237</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.0928244684872</v>
+        <v>822.6199446104351</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>742.0324663787467</v>
+        <v>2041.81711362782</v>
       </c>
       <c r="C11" t="n">
-        <v>742.0324663787467</v>
+        <v>1603.674640811244</v>
       </c>
       <c r="D11" t="n">
-        <v>742.0324663787467</v>
+        <v>1603.674640811244</v>
       </c>
       <c r="E11" t="n">
-        <v>742.0324663787467</v>
+        <v>1169.899895969539</v>
       </c>
       <c r="F11" t="n">
         <v>742.0324663787467</v>
@@ -5041,25 +5041,25 @@
         <v>90.72522887302333</v>
       </c>
       <c r="J11" t="n">
-        <v>593.2199906656809</v>
+        <v>157.965303212763</v>
       </c>
       <c r="K11" t="n">
-        <v>1343.03398991317</v>
+        <v>907.779302460252</v>
       </c>
       <c r="L11" t="n">
-        <v>1468.05483595059</v>
+        <v>1657.593301707741</v>
       </c>
       <c r="M11" t="n">
-        <v>1607.164616105323</v>
+        <v>1796.703081862474</v>
       </c>
       <c r="N11" t="n">
-        <v>1748.525337937758</v>
+        <v>1938.063803694909</v>
       </c>
       <c r="O11" t="n">
-        <v>1882.00825904599</v>
+        <v>2611.154923753872</v>
       </c>
       <c r="P11" t="n">
-        <v>2178.580722724628</v>
+        <v>2725.079508683223</v>
       </c>
       <c r="Q11" t="n">
         <v>2810.632127459412</v>
@@ -5071,22 +5071,22 @@
         <v>2964.319276101999</v>
       </c>
       <c r="T11" t="n">
-        <v>2747.790478574624</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="U11" t="n">
-        <v>2488.632841652455</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="V11" t="n">
-        <v>2126.015891586282</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="W11" t="n">
-        <v>1721.160436997315</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="X11" t="n">
-        <v>1302.017973576626</v>
+        <v>2876.402807813075</v>
       </c>
       <c r="Y11" t="n">
-        <v>893.7318498762789</v>
+        <v>2468.116684112728</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>101.2489498138752</v>
       </c>
       <c r="J12" t="n">
-        <v>141.2966774499999</v>
+        <v>465.8550024162122</v>
       </c>
       <c r="K12" t="n">
-        <v>209.7446226883454</v>
+        <v>1020.336877507365</v>
       </c>
       <c r="L12" t="n">
-        <v>301.7813320623927</v>
+        <v>1112.373586881412</v>
       </c>
       <c r="M12" t="n">
-        <v>1051.595331309882</v>
+        <v>1219.776085629795</v>
       </c>
       <c r="N12" t="n">
-        <v>1447.193987028279</v>
+        <v>1330.021208933939</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.046736718491</v>
+        <v>1430.873958624151</v>
       </c>
       <c r="P12" t="n">
-        <v>1628.989959680359</v>
+        <v>1511.817181586019</v>
       </c>
       <c r="Q12" t="n">
-        <v>1683.098360642327</v>
+        <v>1565.925582547988</v>
       </c>
       <c r="R12" t="n">
         <v>1709.416341813906</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2477.726898453376</v>
+        <v>1769.007542092609</v>
       </c>
       <c r="C14" t="n">
-        <v>2039.584425636799</v>
+        <v>1330.865069276033</v>
       </c>
       <c r="D14" t="n">
-        <v>1603.674640811244</v>
+        <v>894.9552844504771</v>
       </c>
       <c r="E14" t="n">
-        <v>1169.899895969539</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="F14" t="n">
-        <v>742.0324663787467</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="G14" t="n">
-        <v>341.4429570121957</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="H14" t="n">
         <v>60.59103024222134</v>
@@ -5281,16 +5281,16 @@
         <v>593.2199906656809</v>
       </c>
       <c r="K14" t="n">
-        <v>909.3507905232</v>
+        <v>1343.03398991317</v>
       </c>
       <c r="L14" t="n">
-        <v>1034.37163656062</v>
+        <v>1468.05483595059</v>
       </c>
       <c r="M14" t="n">
-        <v>1173.481416715353</v>
+        <v>1607.164616105323</v>
       </c>
       <c r="N14" t="n">
-        <v>1314.842138547788</v>
+        <v>1748.525337937758</v>
       </c>
       <c r="O14" t="n">
         <v>2064.656137795277</v>
@@ -5308,22 +5308,22 @@
         <v>2964.319276101999</v>
       </c>
       <c r="T14" t="n">
-        <v>2904.026468938284</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="U14" t="n">
-        <v>2904.026468938284</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="V14" t="n">
-        <v>2904.026468938284</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="W14" t="n">
-        <v>2904.026468938284</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="X14" t="n">
-        <v>2904.026468938284</v>
+        <v>2545.17681268131</v>
       </c>
       <c r="Y14" t="n">
-        <v>2904.026468938284</v>
+        <v>2195.307112577517</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>60.59103024222134</v>
       </c>
       <c r="I15" t="n">
-        <v>101.2489498138752</v>
+        <v>75.1852766534176</v>
       </c>
       <c r="J15" t="n">
-        <v>141.2966774499999</v>
+        <v>439.7913292557546</v>
       </c>
       <c r="K15" t="n">
-        <v>890.4781427587228</v>
+        <v>508.2392744941001</v>
       </c>
       <c r="L15" t="n">
-        <v>1229.546364975752</v>
+        <v>600.2759838681474</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.948863724135</v>
+        <v>707.6784826165306</v>
       </c>
       <c r="N15" t="n">
-        <v>1447.193987028279</v>
+        <v>817.9236059206742</v>
       </c>
       <c r="O15" t="n">
-        <v>1548.046736718491</v>
+        <v>918.7763556108861</v>
       </c>
       <c r="P15" t="n">
-        <v>1628.989959680359</v>
+        <v>999.7195785727539</v>
       </c>
       <c r="Q15" t="n">
-        <v>1683.098360642327</v>
+        <v>1565.925582547988</v>
       </c>
       <c r="R15" t="n">
         <v>1709.416341813906</v>
@@ -5427,7 +5427,7 @@
         <v>440.2541966243342</v>
       </c>
       <c r="G16" t="n">
-        <v>275.025507076452</v>
+        <v>275.0255070764519</v>
       </c>
       <c r="H16" t="n">
         <v>138.3470468296598</v>
@@ -5439,16 +5439,16 @@
         <v>172.2953727318074</v>
       </c>
       <c r="K16" t="n">
-        <v>488.3413572775057</v>
+        <v>488.3413572775061</v>
       </c>
       <c r="L16" t="n">
-        <v>959.3850626138548</v>
+        <v>959.3850626138551</v>
       </c>
       <c r="M16" t="n">
         <v>1474.574788898945</v>
       </c>
       <c r="N16" t="n">
-        <v>1971.214890339986</v>
+        <v>1971.214890339987</v>
       </c>
       <c r="O16" t="n">
         <v>2441.114070398671</v>
@@ -5460,13 +5460,13 @@
         <v>3029.551512111067</v>
       </c>
       <c r="R16" t="n">
-        <v>3024.436850074898</v>
+        <v>3024.436850074897</v>
       </c>
       <c r="S16" t="n">
-        <v>2871.514356483786</v>
+        <v>2871.514356483785</v>
       </c>
       <c r="T16" t="n">
-        <v>2627.184138701844</v>
+        <v>2627.184138701843</v>
       </c>
       <c r="U16" t="n">
         <v>2348.770915341837</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2074.555059861269</v>
+        <v>1767.444065334698</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.412587044692</v>
+        <v>1329.301592518121</v>
       </c>
       <c r="D17" t="n">
-        <v>1200.502802219137</v>
+        <v>946.9287956734036</v>
       </c>
       <c r="E17" t="n">
-        <v>766.7280573774318</v>
+        <v>513.1540508316988</v>
       </c>
       <c r="F17" t="n">
-        <v>766.7280573774318</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="G17" t="n">
-        <v>366.1385480108809</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="H17" t="n">
-        <v>85.28662124090654</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="I17" t="n">
         <v>115.4208198717085</v>
@@ -5521,46 +5521,46 @@
         <v>283.4363354555745</v>
       </c>
       <c r="L17" t="n">
-        <v>1338.858273311793</v>
+        <v>408.4571814929945</v>
       </c>
       <c r="M17" t="n">
-        <v>2394.280211168011</v>
+        <v>1282.220953931689</v>
       </c>
       <c r="N17" t="n">
-        <v>3449.702149024229</v>
+        <v>2337.642891787908</v>
       </c>
       <c r="O17" t="n">
-        <v>4015.088538441188</v>
+        <v>2471.125812896139</v>
       </c>
       <c r="P17" t="n">
-        <v>4129.013123370539</v>
+        <v>3413.360272658887</v>
       </c>
       <c r="Q17" t="n">
-        <v>4214.565742146728</v>
+        <v>4045.411677393671</v>
       </c>
       <c r="R17" t="n">
-        <v>4264.331062045327</v>
+        <v>4264.331062045326</v>
       </c>
       <c r="S17" t="n">
-        <v>4264.331062045327</v>
+        <v>4264.331062045326</v>
       </c>
       <c r="T17" t="n">
-        <v>4047.802264517951</v>
+        <v>4047.80226451795</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.802264517951</v>
+        <v>3788.644627595782</v>
       </c>
       <c r="V17" t="n">
-        <v>3685.185314451778</v>
+        <v>3426.027677529608</v>
       </c>
       <c r="W17" t="n">
-        <v>3280.329859862811</v>
+        <v>3021.172222940641</v>
       </c>
       <c r="X17" t="n">
-        <v>2909.140754046523</v>
+        <v>2602.029759519952</v>
       </c>
       <c r="Y17" t="n">
-        <v>2500.854630346177</v>
+        <v>2193.743635819606</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>122.845326629657</v>
       </c>
       <c r="H18" t="n">
-        <v>85.28662124090654</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="I18" t="n">
-        <v>125.9445408125604</v>
+        <v>99.88086765210278</v>
       </c>
       <c r="J18" t="n">
-        <v>490.5505934148974</v>
+        <v>435.8455846356293</v>
       </c>
       <c r="K18" t="n">
-        <v>558.9985386532429</v>
+        <v>504.2935298739748</v>
       </c>
       <c r="L18" t="n">
-        <v>651.0352480272902</v>
+        <v>596.3302392480221</v>
       </c>
       <c r="M18" t="n">
-        <v>1244.471676628481</v>
+        <v>703.7327379964053</v>
       </c>
       <c r="N18" t="n">
-        <v>1354.716799932624</v>
+        <v>813.9778613005489</v>
       </c>
       <c r="O18" t="n">
-        <v>1455.569549622836</v>
+        <v>914.8306109907606</v>
       </c>
       <c r="P18" t="n">
-        <v>1536.512772584704</v>
+        <v>995.7738339526286</v>
       </c>
       <c r="Q18" t="n">
         <v>1590.621173546673</v>
@@ -5670,7 +5670,7 @@
         <v>163.042637828345</v>
       </c>
       <c r="I19" t="n">
-        <v>85.28662124090654</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="J19" t="n">
         <v>196.9909637304927</v>
@@ -5697,16 +5697,16 @@
         <v>3054.247103109752</v>
       </c>
       <c r="R19" t="n">
-        <v>3049.132441073583</v>
+        <v>3049.132441073582</v>
       </c>
       <c r="S19" t="n">
-        <v>2896.209947482471</v>
+        <v>2896.20994748247</v>
       </c>
       <c r="T19" t="n">
         <v>2651.879729700529</v>
       </c>
       <c r="U19" t="n">
-        <v>2373.466506340523</v>
+        <v>2373.466506340522</v>
       </c>
       <c r="V19" t="n">
         <v>2086.510998210953</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2064.280016635485</v>
+        <v>2121.35429274632</v>
       </c>
       <c r="C20" t="n">
-        <v>2064.280016635485</v>
+        <v>1683.211819929743</v>
       </c>
       <c r="D20" t="n">
-        <v>1628.370231809929</v>
+        <v>1247.302035104187</v>
       </c>
       <c r="E20" t="n">
-        <v>1194.595486968224</v>
+        <v>813.5272902624824</v>
       </c>
       <c r="F20" t="n">
         <v>766.7280573774318</v>
@@ -5746,58 +5746,58 @@
         <v>366.1385480108809</v>
       </c>
       <c r="H20" t="n">
-        <v>85.28662124090654</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="I20" t="n">
         <v>115.4208198717085</v>
       </c>
       <c r="J20" t="n">
-        <v>182.6608942114482</v>
+        <v>617.9155816643661</v>
       </c>
       <c r="K20" t="n">
-        <v>1117.786627413752</v>
+        <v>1553.04131486667</v>
       </c>
       <c r="L20" t="n">
-        <v>1242.807473451172</v>
+        <v>2226.326454553796</v>
       </c>
       <c r="M20" t="n">
-        <v>2298.22941130739</v>
+        <v>2365.436234708529</v>
       </c>
       <c r="N20" t="n">
-        <v>2439.590133139825</v>
+        <v>2506.796956540964</v>
       </c>
       <c r="O20" t="n">
-        <v>2573.073054248057</v>
+        <v>2640.279877649196</v>
       </c>
       <c r="P20" t="n">
-        <v>3515.307514010804</v>
+        <v>3582.514337411943</v>
       </c>
       <c r="Q20" t="n">
-        <v>4147.358918745588</v>
+        <v>4214.565742146727</v>
       </c>
       <c r="R20" t="n">
-        <v>4264.331062045327</v>
+        <v>4264.331062045326</v>
       </c>
       <c r="S20" t="n">
-        <v>4264.331062045327</v>
+        <v>4199.098826036258</v>
       </c>
       <c r="T20" t="n">
-        <v>4264.331062045327</v>
+        <v>3982.570028508883</v>
       </c>
       <c r="U20" t="n">
-        <v>4005.173425123158</v>
+        <v>3723.412391586714</v>
       </c>
       <c r="V20" t="n">
-        <v>3642.556475056985</v>
+        <v>3360.795441520541</v>
       </c>
       <c r="W20" t="n">
-        <v>3237.701020468018</v>
+        <v>2955.939986931574</v>
       </c>
       <c r="X20" t="n">
-        <v>2818.558557047329</v>
+        <v>2955.939986931574</v>
       </c>
       <c r="Y20" t="n">
-        <v>2410.272433346982</v>
+        <v>2547.653863231227</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>122.845326629657</v>
       </c>
       <c r="H21" t="n">
-        <v>85.28662124090654</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="I21" t="n">
-        <v>99.88086765210281</v>
+        <v>99.88086765210278</v>
       </c>
       <c r="J21" t="n">
         <v>139.9285952882275</v>
       </c>
       <c r="K21" t="n">
-        <v>208.376540526573</v>
+        <v>621.4663079683145</v>
       </c>
       <c r="L21" t="n">
-        <v>1254.241955974437</v>
+        <v>713.5030173423618</v>
       </c>
       <c r="M21" t="n">
-        <v>1361.64445472282</v>
+        <v>820.905516090745</v>
       </c>
       <c r="N21" t="n">
-        <v>1471.889578026964</v>
+        <v>931.1506393948886</v>
       </c>
       <c r="O21" t="n">
-        <v>1572.742327717176</v>
+        <v>1032.0033890851</v>
       </c>
       <c r="P21" t="n">
-        <v>1653.685550679044</v>
+        <v>1112.946612046968</v>
       </c>
       <c r="Q21" t="n">
         <v>1707.793951641013</v>
@@ -5889,28 +5889,28 @@
         <v>1149.854549725779</v>
       </c>
       <c r="C22" t="n">
-        <v>977.2928382090032</v>
+        <v>977.2928382090039</v>
       </c>
       <c r="D22" t="n">
-        <v>811.4148454105259</v>
+        <v>811.4148454105266</v>
       </c>
       <c r="E22" t="n">
-        <v>641.6568416612631</v>
+        <v>641.6568416612638</v>
       </c>
       <c r="F22" t="n">
-        <v>464.9497876230193</v>
+        <v>464.94978762302</v>
       </c>
       <c r="G22" t="n">
-        <v>299.7210980751371</v>
+        <v>299.7210980751378</v>
       </c>
       <c r="H22" t="n">
-        <v>163.042637828345</v>
+        <v>163.0426378283456</v>
       </c>
       <c r="I22" t="n">
-        <v>85.28662124090654</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="J22" t="n">
-        <v>196.9909637304927</v>
+        <v>196.9909637304926</v>
       </c>
       <c r="K22" t="n">
         <v>513.036948276191</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2518.753319250559</v>
+        <v>2518.75331925056</v>
       </c>
       <c r="C23" t="n">
-        <v>2080.610846433983</v>
+        <v>2080.610846433984</v>
       </c>
       <c r="D23" t="n">
-        <v>1644.701061608427</v>
+        <v>1644.701061608428</v>
       </c>
       <c r="E23" t="n">
-        <v>1210.926316766722</v>
+        <v>1210.926316766723</v>
       </c>
       <c r="F23" t="n">
-        <v>783.0588871759303</v>
+        <v>783.058887175931</v>
       </c>
       <c r="G23" t="n">
         <v>382.4693778093795</v>
@@ -5992,49 +5992,49 @@
         <v>634.2464114628647</v>
       </c>
       <c r="K23" t="n">
-        <v>735.021852706991</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L23" t="n">
-        <v>860.0426987444109</v>
+        <v>1694.392990702589</v>
       </c>
       <c r="M23" t="n">
-        <v>999.1524788991444</v>
+        <v>1833.502770857323</v>
       </c>
       <c r="N23" t="n">
-        <v>2256.668435511782</v>
+        <v>2174.004715142531</v>
       </c>
       <c r="O23" t="n">
-        <v>3287.667302821068</v>
+        <v>3287.66730282107</v>
       </c>
       <c r="P23" t="n">
-        <v>4229.901762583815</v>
+        <v>4229.901762583817</v>
       </c>
       <c r="Q23" t="n">
-        <v>4861.953167318598</v>
+        <v>4861.9531673186</v>
       </c>
       <c r="R23" t="n">
-        <v>5080.872551970254</v>
+        <v>5080.872551970256</v>
       </c>
       <c r="S23" t="n">
-        <v>5015.640315961186</v>
+        <v>5015.640315961188</v>
       </c>
       <c r="T23" t="n">
-        <v>4799.111518433811</v>
+        <v>4799.111518433812</v>
       </c>
       <c r="U23" t="n">
-        <v>4539.953881511643</v>
+        <v>4539.953881511644</v>
       </c>
       <c r="V23" t="n">
-        <v>4177.336931445469</v>
+        <v>4177.33693144547</v>
       </c>
       <c r="W23" t="n">
-        <v>3772.481476856503</v>
+        <v>3772.481476856504</v>
       </c>
       <c r="X23" t="n">
-        <v>3353.339013435814</v>
+        <v>3353.339013435815</v>
       </c>
       <c r="Y23" t="n">
-        <v>2945.052889735467</v>
+        <v>2945.052889735468</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>603.179758831815</v>
+        <v>603.1797588318151</v>
       </c>
       <c r="C24" t="n">
         <v>496.7232976684573</v>
@@ -6065,31 +6065,31 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I24" t="n">
-        <v>116.2116974506013</v>
+        <v>116.2116974506014</v>
       </c>
       <c r="J24" t="n">
-        <v>156.259425086726</v>
+        <v>480.8177500529384</v>
       </c>
       <c r="K24" t="n">
-        <v>224.7073703250716</v>
+        <v>549.2656952912839</v>
       </c>
       <c r="L24" t="n">
-        <v>1270.572785772936</v>
+        <v>641.3024046653312</v>
       </c>
       <c r="M24" t="n">
-        <v>1377.975284521319</v>
+        <v>748.7049034137143</v>
       </c>
       <c r="N24" t="n">
-        <v>1488.220407825463</v>
+        <v>858.9500267178579</v>
       </c>
       <c r="O24" t="n">
-        <v>1589.073157515675</v>
+        <v>959.8027764080698</v>
       </c>
       <c r="P24" t="n">
-        <v>1670.016380477542</v>
+        <v>1040.745999369938</v>
       </c>
       <c r="Q24" t="n">
-        <v>1724.124781439511</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R24" t="n">
         <v>1750.44276261109</v>
@@ -6110,10 +6110,10 @@
         <v>1005.836874893477</v>
       </c>
       <c r="X24" t="n">
-        <v>850.9694391323574</v>
+        <v>850.9694391323575</v>
       </c>
       <c r="Y24" t="n">
-        <v>724.4836599115781</v>
+        <v>724.4836599115782</v>
       </c>
     </row>
     <row r="25">
@@ -6168,13 +6168,13 @@
         <v>2872.627768482439</v>
       </c>
       <c r="Q25" t="n">
-        <v>3070.577932908249</v>
+        <v>3070.57793290825</v>
       </c>
       <c r="R25" t="n">
         <v>3065.463270872081</v>
       </c>
       <c r="S25" t="n">
-        <v>2912.54077728097</v>
+        <v>2912.540777280969</v>
       </c>
       <c r="T25" t="n">
         <v>2668.210559499028</v>
@@ -6214,7 +6214,7 @@
         <v>1210.926316766722</v>
       </c>
       <c r="F26" t="n">
-        <v>783.0588871759301</v>
+        <v>783.0588871759303</v>
       </c>
       <c r="G26" t="n">
         <v>382.4693778093795</v>
@@ -6226,49 +6226,49 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J26" t="n">
-        <v>473.980518374429</v>
+        <v>198.9917240099468</v>
       </c>
       <c r="K26" t="n">
-        <v>1409.106251576733</v>
+        <v>299.7671652540731</v>
       </c>
       <c r="L26" t="n">
-        <v>2609.187063867013</v>
+        <v>1499.847977544352</v>
       </c>
       <c r="M26" t="n">
-        <v>2748.296844021746</v>
+        <v>2612.321275811851</v>
       </c>
       <c r="N26" t="n">
-        <v>2889.657565854181</v>
+        <v>3869.837232424489</v>
       </c>
       <c r="O26" t="n">
-        <v>4003.320153532719</v>
+        <v>4003.320153532721</v>
       </c>
       <c r="P26" t="n">
-        <v>4945.554613295466</v>
+        <v>4945.554613295468</v>
       </c>
       <c r="Q26" t="n">
-        <v>5031.107232071655</v>
+        <v>5031.107232071657</v>
       </c>
       <c r="R26" t="n">
-        <v>5080.872551970254</v>
+        <v>5080.872551970256</v>
       </c>
       <c r="S26" t="n">
-        <v>5015.640315961187</v>
+        <v>5015.640315961188</v>
       </c>
       <c r="T26" t="n">
-        <v>4799.111518433811</v>
+        <v>4799.111518433812</v>
       </c>
       <c r="U26" t="n">
-        <v>4539.953881511643</v>
+        <v>4539.953881511644</v>
       </c>
       <c r="V26" t="n">
-        <v>4177.336931445469</v>
+        <v>4177.33693144547</v>
       </c>
       <c r="W26" t="n">
-        <v>3772.481476856503</v>
+        <v>3772.481476856504</v>
       </c>
       <c r="X26" t="n">
-        <v>3353.339013435814</v>
+        <v>3353.339013435815</v>
       </c>
       <c r="Y26" t="n">
         <v>2945.052889735467</v>
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>603.179758831815</v>
+        <v>603.1797588318151</v>
       </c>
       <c r="C27" t="n">
         <v>496.7232976684573</v>
@@ -6302,31 +6302,31 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I27" t="n">
-        <v>142.2753706110589</v>
+        <v>116.2116974506014</v>
       </c>
       <c r="J27" t="n">
-        <v>506.8814232133959</v>
+        <v>452.1764144341279</v>
       </c>
       <c r="K27" t="n">
-        <v>575.3293684517414</v>
+        <v>520.6243596724735</v>
       </c>
       <c r="L27" t="n">
-        <v>667.3660778257887</v>
+        <v>612.6610690465208</v>
       </c>
       <c r="M27" t="n">
-        <v>774.7685765741718</v>
+        <v>720.063567794904</v>
       </c>
       <c r="N27" t="n">
-        <v>885.0136998783153</v>
+        <v>830.3086910990476</v>
       </c>
       <c r="O27" t="n">
-        <v>985.8664495685272</v>
+        <v>931.1614407892594</v>
       </c>
       <c r="P27" t="n">
-        <v>1066.809672530395</v>
+        <v>1012.104663751127</v>
       </c>
       <c r="Q27" t="n">
-        <v>1661.657012124439</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R27" t="n">
         <v>1750.44276261109</v>
@@ -6347,10 +6347,10 @@
         <v>1005.836874893477</v>
       </c>
       <c r="X27" t="n">
-        <v>850.9694391323574</v>
+        <v>850.9694391323575</v>
       </c>
       <c r="Y27" t="n">
-        <v>724.4836599115781</v>
+        <v>724.4836599115782</v>
       </c>
     </row>
     <row r="28">
@@ -6378,7 +6378,7 @@
         <v>316.0519278736357</v>
       </c>
       <c r="H28" t="n">
-        <v>179.3734676268436</v>
+        <v>179.3734676268435</v>
       </c>
       <c r="I28" t="n">
         <v>101.6174510394051</v>
@@ -6390,7 +6390,7 @@
         <v>529.3677780746895</v>
       </c>
       <c r="L28" t="n">
-        <v>1000.411483411039</v>
+        <v>1000.411483411038</v>
       </c>
       <c r="M28" t="n">
         <v>1515.601209696129</v>
@@ -6408,7 +6408,7 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R28" t="n">
-        <v>3065.463270872082</v>
+        <v>3065.463270872081</v>
       </c>
       <c r="S28" t="n">
         <v>2912.540777280969</v>
@@ -6451,7 +6451,7 @@
         <v>1210.926316766722</v>
       </c>
       <c r="F29" t="n">
-        <v>783.0588871759303</v>
+        <v>783.0588871759301</v>
       </c>
       <c r="G29" t="n">
         <v>382.4693778093795</v>
@@ -6463,28 +6463,28 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J29" t="n">
-        <v>198.9917240099468</v>
+        <v>634.2464114628647</v>
       </c>
       <c r="K29" t="n">
-        <v>862.6074656181395</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L29" t="n">
-        <v>2062.688277908419</v>
+        <v>2769.452956955449</v>
       </c>
       <c r="M29" t="n">
-        <v>2201.798058063152</v>
+        <v>3012.823659880402</v>
       </c>
       <c r="N29" t="n">
-        <v>2343.158779895587</v>
+        <v>3154.184381712837</v>
       </c>
       <c r="O29" t="n">
-        <v>3456.821367574126</v>
+        <v>3287.667302821069</v>
       </c>
       <c r="P29" t="n">
-        <v>4399.055827336872</v>
+        <v>4229.901762583816</v>
       </c>
       <c r="Q29" t="n">
-        <v>5031.107232071656</v>
+        <v>4861.953167318599</v>
       </c>
       <c r="R29" t="n">
         <v>5080.872551970255</v>
@@ -6542,28 +6542,28 @@
         <v>116.2116974506014</v>
       </c>
       <c r="J30" t="n">
-        <v>156.259425086726</v>
+        <v>480.8177500529383</v>
       </c>
       <c r="K30" t="n">
-        <v>637.7971377668132</v>
+        <v>549.2656952912839</v>
       </c>
       <c r="L30" t="n">
-        <v>729.8338471408605</v>
+        <v>641.3024046653312</v>
       </c>
       <c r="M30" t="n">
-        <v>837.2363458892437</v>
+        <v>748.7049034137143</v>
       </c>
       <c r="N30" t="n">
-        <v>947.4814691933873</v>
+        <v>858.9500267178579</v>
       </c>
       <c r="O30" t="n">
-        <v>1048.334218883599</v>
+        <v>959.8027764080698</v>
       </c>
       <c r="P30" t="n">
-        <v>1129.277441845467</v>
+        <v>1040.745999369938</v>
       </c>
       <c r="Q30" t="n">
-        <v>1724.124781439511</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R30" t="n">
         <v>1750.44276261109</v>
@@ -6600,7 +6600,7 @@
         <v>1166.185379524277</v>
       </c>
       <c r="C31" t="n">
-        <v>993.6236680075017</v>
+        <v>993.6236680075018</v>
       </c>
       <c r="D31" t="n">
         <v>827.7456752090245</v>
@@ -6679,7 +6679,7 @@
         <v>2518.75331925056</v>
       </c>
       <c r="C32" t="n">
-        <v>2080.610846433984</v>
+        <v>2080.610846433983</v>
       </c>
       <c r="D32" t="n">
         <v>1644.701061608427</v>
@@ -6700,52 +6700,52 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J32" t="n">
-        <v>198.9917240099468</v>
+        <v>634.2464114628647</v>
       </c>
       <c r="K32" t="n">
-        <v>1134.117457212251</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L32" t="n">
-        <v>2334.19826950253</v>
+        <v>1694.392990702589</v>
       </c>
       <c r="M32" t="n">
-        <v>2473.308049657264</v>
+        <v>1833.502770857323</v>
       </c>
       <c r="N32" t="n">
-        <v>2614.668771489698</v>
+        <v>2174.004715142529</v>
       </c>
       <c r="O32" t="n">
-        <v>3728.331359168237</v>
+        <v>3287.667302821068</v>
       </c>
       <c r="P32" t="n">
-        <v>4670.565818930984</v>
+        <v>4229.901762583815</v>
       </c>
       <c r="Q32" t="n">
-        <v>5031.107232071656</v>
+        <v>4861.953167318598</v>
       </c>
       <c r="R32" t="n">
-        <v>5080.872551970255</v>
+        <v>5080.872551970254</v>
       </c>
       <c r="S32" t="n">
-        <v>5015.640315961187</v>
+        <v>5015.640315961186</v>
       </c>
       <c r="T32" t="n">
-        <v>4799.111518433811</v>
+        <v>4799.11151843381</v>
       </c>
       <c r="U32" t="n">
-        <v>4539.953881511643</v>
+        <v>4539.953881511642</v>
       </c>
       <c r="V32" t="n">
-        <v>4177.33693144547</v>
+        <v>4177.336931445469</v>
       </c>
       <c r="W32" t="n">
-        <v>3772.481476856504</v>
+        <v>3772.481476856503</v>
       </c>
       <c r="X32" t="n">
-        <v>3353.339013435815</v>
+        <v>3353.339013435814</v>
       </c>
       <c r="Y32" t="n">
-        <v>2945.052889735468</v>
+        <v>2945.052889735467</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>224.1287557581259</v>
       </c>
       <c r="G33" t="n">
-        <v>139.1761564281556</v>
+        <v>139.1761564281555</v>
       </c>
       <c r="H33" t="n">
         <v>101.6174510394051</v>
       </c>
       <c r="I33" t="n">
-        <v>116.2116974506014</v>
+        <v>116.2116974506013</v>
       </c>
       <c r="J33" t="n">
-        <v>452.1764144341281</v>
+        <v>480.8177500529383</v>
       </c>
       <c r="K33" t="n">
-        <v>520.6243596724736</v>
+        <v>549.2656952912839</v>
       </c>
       <c r="L33" t="n">
-        <v>612.6610690465209</v>
+        <v>641.3024046653312</v>
       </c>
       <c r="M33" t="n">
-        <v>720.0635677949041</v>
+        <v>748.7049034137143</v>
       </c>
       <c r="N33" t="n">
-        <v>830.3086910990476</v>
+        <v>858.9500267178579</v>
       </c>
       <c r="O33" t="n">
-        <v>931.1614407892594</v>
+        <v>959.8027764080698</v>
       </c>
       <c r="P33" t="n">
-        <v>1012.104663751127</v>
+        <v>1040.745999369938</v>
       </c>
       <c r="Q33" t="n">
         <v>1606.952003345172</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1166.185379524278</v>
+        <v>1166.185379524277</v>
       </c>
       <c r="C34" t="n">
-        <v>993.6236680075025</v>
+        <v>993.6236680075018</v>
       </c>
       <c r="D34" t="n">
-        <v>827.7456752090252</v>
+        <v>827.7456752090245</v>
       </c>
       <c r="E34" t="n">
-        <v>657.9876714597624</v>
+        <v>657.9876714597617</v>
       </c>
       <c r="F34" t="n">
-        <v>481.2806174215186</v>
+        <v>481.2806174215179</v>
       </c>
       <c r="G34" t="n">
-        <v>316.0519278736364</v>
+        <v>316.0519278736357</v>
       </c>
       <c r="H34" t="n">
-        <v>179.3734676268442</v>
+        <v>179.3734676268435</v>
       </c>
       <c r="I34" t="n">
         <v>101.6174510394051</v>
@@ -6882,28 +6882,28 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R34" t="n">
-        <v>3065.463270872082</v>
+        <v>3065.463270872081</v>
       </c>
       <c r="S34" t="n">
-        <v>2912.54077728097</v>
+        <v>2912.540777280969</v>
       </c>
       <c r="T34" t="n">
         <v>2668.210559499028</v>
       </c>
       <c r="U34" t="n">
-        <v>2389.797336139022</v>
+        <v>2389.797336139021</v>
       </c>
       <c r="V34" t="n">
         <v>2102.841828009452</v>
       </c>
       <c r="W34" t="n">
-        <v>1830.815423595744</v>
+        <v>1830.815423595743</v>
       </c>
       <c r="X34" t="n">
-        <v>1585.423668929157</v>
+        <v>1585.423668929156</v>
       </c>
       <c r="Y34" t="n">
-        <v>1358.003998243265</v>
+        <v>1358.003998243264</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2452.901272741775</v>
+        <v>2473.114903092151</v>
       </c>
       <c r="C35" t="n">
-        <v>2014.758799925198</v>
+        <v>2034.972430275574</v>
       </c>
       <c r="D35" t="n">
-        <v>1578.849015099643</v>
+        <v>1599.062645450018</v>
       </c>
       <c r="E35" t="n">
-        <v>1194.595486968224</v>
+        <v>1165.287900608314</v>
       </c>
       <c r="F35" t="n">
-        <v>766.7280573774318</v>
+        <v>737.4204710175213</v>
       </c>
       <c r="G35" t="n">
-        <v>366.1385480108809</v>
+        <v>336.8309616509704</v>
       </c>
       <c r="H35" t="n">
-        <v>85.28662124090654</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="I35" t="n">
         <v>115.4208198717085</v>
       </c>
       <c r="J35" t="n">
-        <v>182.6608942114482</v>
+        <v>617.9155816643661</v>
       </c>
       <c r="K35" t="n">
-        <v>1117.786627413752</v>
+        <v>1179.36659176839</v>
       </c>
       <c r="L35" t="n">
-        <v>1242.807473451172</v>
+        <v>1304.38743780581</v>
       </c>
       <c r="M35" t="n">
-        <v>1381.917253605906</v>
+        <v>1443.497217960543</v>
       </c>
       <c r="N35" t="n">
-        <v>1523.27797543834</v>
+        <v>1584.857939792978</v>
       </c>
       <c r="O35" t="n">
-        <v>2578.699913294558</v>
+        <v>2640.279877649196</v>
       </c>
       <c r="P35" t="n">
-        <v>3520.934373057306</v>
+        <v>3582.514337411943</v>
       </c>
       <c r="Q35" t="n">
-        <v>4152.98577779209</v>
+        <v>4214.565742146727</v>
       </c>
       <c r="R35" t="n">
-        <v>4264.331062045327</v>
+        <v>4264.331062045326</v>
       </c>
       <c r="S35" t="n">
-        <v>4264.331062045327</v>
+        <v>4199.098826036258</v>
       </c>
       <c r="T35" t="n">
-        <v>4047.802264517951</v>
+        <v>3982.570028508883</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.802264517951</v>
+        <v>3723.412391586714</v>
       </c>
       <c r="V35" t="n">
-        <v>3685.185314451778</v>
+        <v>3723.412391586714</v>
       </c>
       <c r="W35" t="n">
-        <v>3280.329859862811</v>
+        <v>3318.556936997747</v>
       </c>
       <c r="X35" t="n">
-        <v>2861.187396442122</v>
+        <v>2899.414473577058</v>
       </c>
       <c r="Y35" t="n">
-        <v>2452.901272741775</v>
+        <v>2899.414473577058</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>122.845326629657</v>
       </c>
       <c r="H36" t="n">
-        <v>85.28662124090654</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="I36" t="n">
-        <v>125.9445408125604</v>
+        <v>99.88086765210278</v>
       </c>
       <c r="J36" t="n">
-        <v>435.8455846356294</v>
+        <v>464.4869202544398</v>
       </c>
       <c r="K36" t="n">
-        <v>504.2935298739749</v>
+        <v>532.9348654927853</v>
       </c>
       <c r="L36" t="n">
-        <v>596.3302392480222</v>
+        <v>624.9715748668326</v>
       </c>
       <c r="M36" t="n">
-        <v>703.7327379964054</v>
+        <v>732.3740736152157</v>
       </c>
       <c r="N36" t="n">
-        <v>813.9778613005489</v>
+        <v>842.6191969193593</v>
       </c>
       <c r="O36" t="n">
-        <v>914.8306109907606</v>
+        <v>943.4719466095712</v>
       </c>
       <c r="P36" t="n">
-        <v>995.7738339526286</v>
+        <v>1024.415169571439</v>
       </c>
       <c r="Q36" t="n">
         <v>1590.621173546673</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1149.854549725779</v>
+        <v>1149.854549725778</v>
       </c>
       <c r="C37" t="n">
-        <v>977.2928382090039</v>
+        <v>977.2928382090032</v>
       </c>
       <c r="D37" t="n">
-        <v>811.4148454105266</v>
+        <v>811.4148454105259</v>
       </c>
       <c r="E37" t="n">
-        <v>641.6568416612638</v>
+        <v>641.6568416612631</v>
       </c>
       <c r="F37" t="n">
-        <v>464.94978762302</v>
+        <v>464.9497876230193</v>
       </c>
       <c r="G37" t="n">
-        <v>299.7210980751378</v>
+        <v>299.7210980751371</v>
       </c>
       <c r="H37" t="n">
-        <v>163.0426378283456</v>
+        <v>163.0426378283449</v>
       </c>
       <c r="I37" t="n">
-        <v>85.28662124090654</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="J37" t="n">
-        <v>196.9909637304927</v>
+        <v>196.9909637304926</v>
       </c>
       <c r="K37" t="n">
         <v>513.036948276191</v>
@@ -7131,16 +7131,16 @@
         <v>2373.466506340523</v>
       </c>
       <c r="V37" t="n">
-        <v>2086.510998210954</v>
+        <v>2086.510998210953</v>
       </c>
       <c r="W37" t="n">
         <v>1814.484593797245</v>
       </c>
       <c r="X37" t="n">
-        <v>1569.092839130658</v>
+        <v>1569.092839130657</v>
       </c>
       <c r="Y37" t="n">
-        <v>1341.673168444766</v>
+        <v>1341.673168444765</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2101.83298008551</v>
+        <v>2221.570562682087</v>
       </c>
       <c r="C38" t="n">
-        <v>1663.690507268934</v>
+        <v>1783.42808986551</v>
       </c>
       <c r="D38" t="n">
-        <v>1227.780722443378</v>
+        <v>1347.518305039955</v>
       </c>
       <c r="E38" t="n">
-        <v>794.0059776016732</v>
+        <v>913.7435601982497</v>
       </c>
       <c r="F38" t="n">
-        <v>366.1385480108809</v>
+        <v>485.8761306074574</v>
       </c>
       <c r="G38" t="n">
-        <v>366.1385480108809</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="H38" t="n">
-        <v>85.28662124090654</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="I38" t="n">
         <v>115.4208198717085</v>
@@ -7180,46 +7180,46 @@
         <v>1553.04131486667</v>
       </c>
       <c r="L38" t="n">
-        <v>2226.326454553797</v>
+        <v>1678.06216090409</v>
       </c>
       <c r="M38" t="n">
-        <v>2365.43623470853</v>
+        <v>1817.171941058824</v>
       </c>
       <c r="N38" t="n">
-        <v>2506.796956540965</v>
+        <v>1958.532662891258</v>
       </c>
       <c r="O38" t="n">
-        <v>2640.279877649197</v>
+        <v>2640.279877649196</v>
       </c>
       <c r="P38" t="n">
-        <v>3582.514337411944</v>
+        <v>3582.514337411943</v>
       </c>
       <c r="Q38" t="n">
-        <v>4214.565742146728</v>
+        <v>4214.565742146727</v>
       </c>
       <c r="R38" t="n">
-        <v>4264.331062045327</v>
+        <v>4264.331062045326</v>
       </c>
       <c r="S38" t="n">
-        <v>4264.331062045327</v>
+        <v>4264.331062045326</v>
       </c>
       <c r="T38" t="n">
-        <v>4264.331062045327</v>
+        <v>4047.80226451795</v>
       </c>
       <c r="U38" t="n">
-        <v>4005.173425123158</v>
+        <v>3788.644627595782</v>
       </c>
       <c r="V38" t="n">
-        <v>3642.556475056985</v>
+        <v>3475.29872028803</v>
       </c>
       <c r="W38" t="n">
-        <v>3237.701020468018</v>
+        <v>3475.29872028803</v>
       </c>
       <c r="X38" t="n">
-        <v>2818.558557047329</v>
+        <v>3056.156256867341</v>
       </c>
       <c r="Y38" t="n">
-        <v>2410.272433346982</v>
+        <v>2647.870133166994</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>122.845326629657</v>
       </c>
       <c r="H39" t="n">
-        <v>85.28662124090654</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="I39" t="n">
-        <v>125.9445408125604</v>
+        <v>99.88086765210278</v>
       </c>
       <c r="J39" t="n">
-        <v>490.5505934148974</v>
+        <v>464.4869202544398</v>
       </c>
       <c r="K39" t="n">
-        <v>558.9985386532429</v>
+        <v>532.9348654927853</v>
       </c>
       <c r="L39" t="n">
-        <v>651.0352480272902</v>
+        <v>624.9715748668326</v>
       </c>
       <c r="M39" t="n">
-        <v>758.4377467756733</v>
+        <v>732.3740736152157</v>
       </c>
       <c r="N39" t="n">
-        <v>868.6828700798168</v>
+        <v>842.6191969193593</v>
       </c>
       <c r="O39" t="n">
-        <v>969.5356197700287</v>
+        <v>943.4719466095712</v>
       </c>
       <c r="P39" t="n">
-        <v>1050.478842731897</v>
+        <v>1024.415169571439</v>
       </c>
       <c r="Q39" t="n">
         <v>1590.621173546673</v>
@@ -7326,10 +7326,10 @@
         <v>299.7210980751371</v>
       </c>
       <c r="H40" t="n">
-        <v>163.042637828345</v>
+        <v>163.0426378283449</v>
       </c>
       <c r="I40" t="n">
-        <v>85.28662124090653</v>
+        <v>85.28662124090651</v>
       </c>
       <c r="J40" t="n">
         <v>196.9909637304926</v>
@@ -7341,25 +7341,25 @@
         <v>984.08065361254</v>
       </c>
       <c r="M40" t="n">
-        <v>1499.270379897631</v>
+        <v>1499.27037989763</v>
       </c>
       <c r="N40" t="n">
         <v>1995.910481338672</v>
       </c>
       <c r="O40" t="n">
-        <v>2465.809661397357</v>
+        <v>2465.809661397356</v>
       </c>
       <c r="P40" t="n">
-        <v>2856.296938683941</v>
+        <v>2856.29693868394</v>
       </c>
       <c r="Q40" t="n">
         <v>3054.247103109752</v>
       </c>
       <c r="R40" t="n">
-        <v>3049.132441073584</v>
+        <v>3049.132441073583</v>
       </c>
       <c r="S40" t="n">
-        <v>2896.209947482472</v>
+        <v>2896.209947482471</v>
       </c>
       <c r="T40" t="n">
         <v>2651.879729700529</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1796.28546231685</v>
+        <v>1763.100226841697</v>
       </c>
       <c r="C41" t="n">
-        <v>1358.142989500274</v>
+        <v>1324.95775402512</v>
       </c>
       <c r="D41" t="n">
-        <v>922.2332046747184</v>
+        <v>889.0479691995645</v>
       </c>
       <c r="E41" t="n">
-        <v>488.4584598330136</v>
+        <v>889.0479691995645</v>
       </c>
       <c r="F41" t="n">
-        <v>60.59103024222132</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="G41" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="H41" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="I41" t="n">
-        <v>90.72522887302331</v>
+        <v>90.72522887302333</v>
       </c>
       <c r="J41" t="n">
         <v>593.2199906656809</v>
@@ -7420,43 +7420,43 @@
         <v>819.0162779472272</v>
       </c>
       <c r="M41" t="n">
-        <v>958.1260581019607</v>
+        <v>958.1260581019608</v>
       </c>
       <c r="N41" t="n">
         <v>1099.486779934395</v>
       </c>
       <c r="O41" t="n">
-        <v>1428.766723477139</v>
+        <v>1597.920788230196</v>
       </c>
       <c r="P41" t="n">
-        <v>2178.580722724627</v>
+        <v>2347.734787477685</v>
       </c>
       <c r="Q41" t="n">
-        <v>2810.632127459411</v>
+        <v>2979.786192212468</v>
       </c>
       <c r="R41" t="n">
-        <v>3029.551512111066</v>
+        <v>3029.551512111067</v>
       </c>
       <c r="S41" t="n">
-        <v>3029.551512111066</v>
+        <v>3016.82838444764</v>
       </c>
       <c r="T41" t="n">
-        <v>3029.551512111066</v>
+        <v>3016.82838444764</v>
       </c>
       <c r="U41" t="n">
-        <v>3029.551512111066</v>
+        <v>3016.82838444764</v>
       </c>
       <c r="V41" t="n">
-        <v>3029.551512111066</v>
+        <v>3016.82838444764</v>
       </c>
       <c r="W41" t="n">
-        <v>3029.551512111066</v>
+        <v>3016.82838444764</v>
       </c>
       <c r="X41" t="n">
-        <v>2630.871156502105</v>
+        <v>2597.685921026951</v>
       </c>
       <c r="Y41" t="n">
-        <v>2222.585032801758</v>
+        <v>2189.399797326605</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>98.1497356309718</v>
       </c>
       <c r="H42" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="I42" t="n">
-        <v>75.18527665341757</v>
+        <v>75.1852766534176</v>
       </c>
       <c r="J42" t="n">
-        <v>115.2330042895422</v>
+        <v>411.149993636944</v>
       </c>
       <c r="K42" t="n">
-        <v>183.6809495278878</v>
+        <v>479.5979388752895</v>
       </c>
       <c r="L42" t="n">
-        <v>560.6755886901312</v>
+        <v>571.6346482493367</v>
       </c>
       <c r="M42" t="n">
-        <v>668.0780874385143</v>
+        <v>679.0371469977199</v>
       </c>
       <c r="N42" t="n">
-        <v>778.3232107426578</v>
+        <v>789.2822703018635</v>
       </c>
       <c r="O42" t="n">
-        <v>879.1759604328697</v>
+        <v>890.1350199920754</v>
       </c>
       <c r="P42" t="n">
-        <v>1628.989959680359</v>
+        <v>971.0782429539432</v>
       </c>
       <c r="Q42" t="n">
-        <v>1683.098360642327</v>
+        <v>1565.925582547988</v>
       </c>
       <c r="R42" t="n">
         <v>1709.416341813906</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1125.158958727093</v>
+        <v>1125.158958727094</v>
       </c>
       <c r="C43" t="n">
-        <v>952.5972472103184</v>
+        <v>952.5972472103189</v>
       </c>
       <c r="D43" t="n">
-        <v>786.7192544118411</v>
+        <v>786.7192544118416</v>
       </c>
       <c r="E43" t="n">
-        <v>616.9612506625783</v>
+        <v>616.9612506625788</v>
       </c>
       <c r="F43" t="n">
-        <v>440.2541966243346</v>
+        <v>440.2541966243342</v>
       </c>
       <c r="G43" t="n">
-        <v>275.0255070764523</v>
+        <v>275.0255070764519</v>
       </c>
       <c r="H43" t="n">
         <v>138.3470468296598</v>
       </c>
       <c r="I43" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="J43" t="n">
         <v>172.2953727318074</v>
@@ -7587,10 +7587,10 @@
         <v>2441.114070398671</v>
       </c>
       <c r="P43" t="n">
-        <v>2831.601347685255</v>
+        <v>2831.601347685256</v>
       </c>
       <c r="Q43" t="n">
-        <v>3029.551512111066</v>
+        <v>3029.551512111067</v>
       </c>
       <c r="R43" t="n">
         <v>3024.436850074898</v>
@@ -7605,13 +7605,13 @@
         <v>2348.770915341838</v>
       </c>
       <c r="V43" t="n">
-        <v>2061.815407212268</v>
+        <v>2061.815407212269</v>
       </c>
       <c r="W43" t="n">
         <v>1789.78900279856</v>
       </c>
       <c r="X43" t="n">
-        <v>1544.397248131972</v>
+        <v>1544.397248131973</v>
       </c>
       <c r="Y43" t="n">
         <v>1316.977577446081</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2077.137389086825</v>
+        <v>1710.591118496055</v>
       </c>
       <c r="C44" t="n">
-        <v>1638.994916270248</v>
+        <v>1272.448645679478</v>
       </c>
       <c r="D44" t="n">
-        <v>1203.085131444693</v>
+        <v>836.5388608539229</v>
       </c>
       <c r="E44" t="n">
-        <v>769.310386602988</v>
+        <v>402.764116012218</v>
       </c>
       <c r="F44" t="n">
-        <v>341.4429570121957</v>
+        <v>402.764116012218</v>
       </c>
       <c r="G44" t="n">
-        <v>341.4429570121957</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="H44" t="n">
         <v>60.59103024222132</v>
       </c>
       <c r="I44" t="n">
-        <v>90.72522887302331</v>
+        <v>90.72522887302333</v>
       </c>
       <c r="J44" t="n">
-        <v>157.965303212763</v>
+        <v>593.2199906656809</v>
       </c>
       <c r="K44" t="n">
-        <v>258.7407444568893</v>
+        <v>1343.03398991317</v>
       </c>
       <c r="L44" t="n">
-        <v>383.7615904943092</v>
+        <v>2092.847989160658</v>
       </c>
       <c r="M44" t="n">
-        <v>522.8713706490428</v>
+        <v>2505.465345566261</v>
       </c>
       <c r="N44" t="n">
-        <v>678.9527242296499</v>
+        <v>2646.826067398696</v>
       </c>
       <c r="O44" t="n">
-        <v>1428.766723477139</v>
+        <v>2780.308988506928</v>
       </c>
       <c r="P44" t="n">
-        <v>2178.580722724627</v>
+        <v>2894.233573436279</v>
       </c>
       <c r="Q44" t="n">
-        <v>2810.632127459411</v>
+        <v>2979.786192212468</v>
       </c>
       <c r="R44" t="n">
         <v>3029.551512111066</v>
       </c>
       <c r="S44" t="n">
-        <v>3029.551512111066</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="T44" t="n">
-        <v>2813.022714583691</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="U44" t="n">
-        <v>2553.865077661522</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="V44" t="n">
-        <v>2496.279852507515</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="W44" t="n">
-        <v>2496.279852507515</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="X44" t="n">
-        <v>2077.137389086825</v>
+        <v>2545.176812681309</v>
       </c>
       <c r="Y44" t="n">
-        <v>2077.137389086825</v>
+        <v>2136.890688980963</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>183.1023349609421</v>
       </c>
       <c r="G45" t="n">
-        <v>98.1497356309718</v>
+        <v>98.14973563097179</v>
       </c>
       <c r="H45" t="n">
         <v>60.59103024222132</v>
       </c>
       <c r="I45" t="n">
-        <v>101.2489498138752</v>
+        <v>75.18527665341759</v>
       </c>
       <c r="J45" t="n">
-        <v>465.8550024162122</v>
+        <v>439.7913292557546</v>
       </c>
       <c r="K45" t="n">
-        <v>534.3029476545578</v>
+        <v>508.2392744941001</v>
       </c>
       <c r="L45" t="n">
-        <v>626.339657028605</v>
+        <v>600.2759838681474</v>
       </c>
       <c r="M45" t="n">
-        <v>733.7421557769882</v>
+        <v>707.6784826165306</v>
       </c>
       <c r="N45" t="n">
-        <v>843.9872790811316</v>
+        <v>817.9236059206742</v>
       </c>
       <c r="O45" t="n">
-        <v>944.8400287713434</v>
+        <v>918.7763556108861</v>
       </c>
       <c r="P45" t="n">
-        <v>1025.783251733211</v>
+        <v>999.7195785727539</v>
       </c>
       <c r="Q45" t="n">
-        <v>1620.630591327256</v>
+        <v>1565.925582547988</v>
       </c>
       <c r="R45" t="n">
         <v>1709.416341813906</v>
@@ -7791,16 +7791,16 @@
         <v>786.7192544118407</v>
       </c>
       <c r="E46" t="n">
-        <v>616.961250662578</v>
+        <v>616.9612506625779</v>
       </c>
       <c r="F46" t="n">
-        <v>440.2541966243342</v>
+        <v>440.2541966243341</v>
       </c>
       <c r="G46" t="n">
-        <v>275.0255070764519</v>
+        <v>275.0255070764518</v>
       </c>
       <c r="H46" t="n">
-        <v>138.3470468296598</v>
+        <v>138.3470468296597</v>
       </c>
       <c r="I46" t="n">
         <v>60.59103024222132</v>
@@ -7809,16 +7809,16 @@
         <v>172.2953727318074</v>
       </c>
       <c r="K46" t="n">
-        <v>488.3413572775057</v>
+        <v>488.3413572775056</v>
       </c>
       <c r="L46" t="n">
-        <v>959.3850626138545</v>
+        <v>959.3850626138548</v>
       </c>
       <c r="M46" t="n">
         <v>1474.574788898945</v>
       </c>
       <c r="N46" t="n">
-        <v>1971.214890339986</v>
+        <v>1971.214890339987</v>
       </c>
       <c r="O46" t="n">
         <v>2441.114070398671</v>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,16 +7990,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8057,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8145,13 +8145,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8215,11 +8215,11 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
@@ -8227,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8291,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8379,13 +8379,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8455,25 +8455,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8531,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M9" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P10" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>655.5945030336997</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>631.1041951616858</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>545.05878681892</v>
       </c>
       <c r="P11" t="n">
-        <v>184.4928068174618</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8768,19 +8768,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>490.9433634876843</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>648.9005055546525</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>288.2358913275291</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>217.5306652660533</v>
+        <v>655.5945030336997</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>622.556644585108</v>
+        <v>184.4928068174615</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>249.5267806494771</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>517.270306074005</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>939.7990826452508</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>925.5678360621059</v>
+        <v>742.0747396807691</v>
       </c>
       <c r="N17" t="n">
-        <v>923.2941575997816</v>
+        <v>923.2941575997813</v>
       </c>
       <c r="O17" t="n">
-        <v>436.2661296047741</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>298.9060498458605</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>490.9433634876843</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>553.8023168178843</v>
       </c>
       <c r="M20" t="n">
-        <v>925.5678360621059</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>67.88568020317143</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>417.2623913552945</v>
       </c>
       <c r="L21" t="n">
-        <v>963.4633394685022</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,10 +9649,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1127.429530081013</v>
+        <v>201.152749952297</v>
       </c>
       <c r="O23" t="n">
-        <v>906.5817638394487</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9716,13 +9716,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>963.4633394685025</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>517.2703060740052</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>277.7664589540225</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>983.195472841177</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1127.429530081014</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>298.9060498458605</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>63.09875688391116</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>568.5255559232994</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>105.3140634042629</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>417.2623913552947</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>517.2703060740052</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>201.1527499522952</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10369,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>277.7664589540236</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>298.9060498458607</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>517.2703060740052</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>465.3288574342398</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>931.251532068673</v>
+        <v>931.2515320686728</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>62.20198419660392</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>272.5791072595397</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>517.2703060740052</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10828,7 +10828,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>553.8023168178852</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>553.8023168178843</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>490.9433634876846</v>
+        <v>517.2703060740052</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>197.7747701358701</v>
+        <v>368.6374618056245</v>
       </c>
       <c r="P41" t="n">
-        <v>642.3125397152908</v>
+        <v>642.312539715291</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>298.9060498458603</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>287.8362927153497</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>675.6270467531525</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>655.5945030336997</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>631.1041951616855</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>276.2702790412823</v>
       </c>
       <c r="N44" t="n">
-        <v>14.86932499815396</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>622.5566445851078</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>642.3125397152908</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>517.270306074005</v>
       </c>
       <c r="R45" t="n">
-        <v>63.09875688391071</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>271.8541851175017</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>327.9137351804476</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>154.6736304600238</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U14" t="n">
         <v>256.5660605529466</v>
@@ -23560,10 +23560,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>57.83225936058795</v>
       </c>
     </row>
     <row r="15">
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>53.00161810102946</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>47.47382402835797</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>79.50408223567592</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>377.2575147386842</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.57991364897666</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>49.02600454318343</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>29.0145104963114</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.57991364897666</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>116.6815160512015</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>64.57991364897666</v>
       </c>
       <c r="T38" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>48.77833233083771</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>278.0434075022746</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.57991364897666</v>
+        <v>51.98401726218481</v>
       </c>
       <c r="T41" t="n">
         <v>214.3635095521018</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>20.25748673361079</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.5836142728854</v>
+        <v>57.83225936058864</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.57991364897666</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V44" t="n">
-        <v>301.9814076630441</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>548705.1795532815</v>
+        <v>548705.1795532814</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>626305.5371892056</v>
+        <v>626305.5371892058</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>626305.5371892056</v>
+        <v>626305.5371892058</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>548705.1795532816</v>
+        <v>548705.1795532815</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>548705.1795532816</v>
+        <v>548705.1795532815</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>431357.3951985226</v>
+        <v>431357.3951985227</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>428917.8559123268</v>
+      </c>
+      <c r="C2" t="n">
         <v>428917.855912327</v>
       </c>
-      <c r="C2" t="n">
-        <v>428917.8559123268</v>
-      </c>
       <c r="D2" t="n">
-        <v>428917.8559123268</v>
+        <v>428917.855912327</v>
       </c>
       <c r="E2" t="n">
         <v>302182.4501838769</v>
@@ -26328,16 +26328,16 @@
         <v>302182.450183877</v>
       </c>
       <c r="G2" t="n">
-        <v>378470.0152238443</v>
+        <v>378470.0152238442</v>
       </c>
       <c r="H2" t="n">
         <v>378470.0152238443</v>
       </c>
       <c r="I2" t="n">
-        <v>428917.8559123268</v>
+        <v>428917.8559123269</v>
       </c>
       <c r="J2" t="n">
-        <v>428917.855912327</v>
+        <v>428917.8559123269</v>
       </c>
       <c r="K2" t="n">
         <v>428917.855912327</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84608.63823593296</v>
+        <v>84608.63823593287</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54283.88238558164</v>
+        <v>54283.88238558176</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>32136.51251477853</v>
+        <v>32136.51251477852</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>236621.7058186226</v>
       </c>
       <c r="E4" t="n">
+        <v>73087.6969674904</v>
+      </c>
+      <c r="F4" t="n">
         <v>73087.69696749038</v>
-      </c>
-      <c r="F4" t="n">
-        <v>73087.6969674904</v>
       </c>
       <c r="G4" t="n">
         <v>99989.94129657789</v>
       </c>
       <c r="H4" t="n">
-        <v>99989.9412965779</v>
+        <v>99989.94129657788</v>
       </c>
       <c r="I4" t="n">
         <v>117779.9983703018</v>
@@ -26444,22 +26444,22 @@
         <v>117779.9983703018</v>
       </c>
       <c r="K4" t="n">
-        <v>117779.9983703017</v>
+        <v>117779.9983703018</v>
       </c>
       <c r="L4" t="n">
         <v>117779.9983703018</v>
       </c>
       <c r="M4" t="n">
-        <v>99989.9412965779</v>
+        <v>99989.94129657789</v>
       </c>
       <c r="N4" t="n">
-        <v>99989.9412965779</v>
+        <v>99989.94129657788</v>
       </c>
       <c r="O4" t="n">
+        <v>73087.6969674904</v>
+      </c>
+      <c r="P4" t="n">
         <v>73087.69696749038</v>
-      </c>
-      <c r="P4" t="n">
-        <v>73087.6969674904</v>
       </c>
     </row>
     <row r="5">
@@ -26484,31 +26484,31 @@
         <v>50388.67788301279</v>
       </c>
       <c r="G5" t="n">
-        <v>69157.32704201354</v>
+        <v>69157.32704201352</v>
       </c>
       <c r="H5" t="n">
-        <v>69157.32704201354</v>
+        <v>69157.32704201352</v>
       </c>
       <c r="I5" t="n">
-        <v>81568.75768887243</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="J5" t="n">
-        <v>81568.75768887243</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="K5" t="n">
         <v>81568.75768887244</v>
       </c>
       <c r="L5" t="n">
-        <v>81568.75768887244</v>
+        <v>81568.75768887243</v>
       </c>
       <c r="M5" t="n">
-        <v>69157.32704201354</v>
+        <v>69157.32704201352</v>
       </c>
       <c r="N5" t="n">
-        <v>69157.32704201354</v>
+        <v>69157.32704201352</v>
       </c>
       <c r="O5" t="n">
-        <v>50388.67788301278</v>
+        <v>50388.67788301279</v>
       </c>
       <c r="P5" t="n">
         <v>50388.67788301278</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9319.938703227905</v>
+        <v>-9319.938703228072</v>
       </c>
       <c r="C6" t="n">
-        <v>132871.3619564818</v>
+        <v>132871.361956482</v>
       </c>
       <c r="D6" t="n">
-        <v>132871.3619564818</v>
+        <v>132871.361956482</v>
       </c>
       <c r="E6" t="n">
-        <v>-80672.79232726299</v>
+        <v>-81068.8404701644</v>
       </c>
       <c r="F6" t="n">
-        <v>178706.0753333739</v>
+        <v>178310.0271904724</v>
       </c>
       <c r="G6" t="n">
-        <v>124714.1086493199</v>
+        <v>124556.4591471684</v>
       </c>
       <c r="H6" t="n">
-        <v>209322.7468852528</v>
+        <v>209165.0973831014</v>
       </c>
       <c r="I6" t="n">
         <v>175285.2174675709</v>
       </c>
       <c r="J6" t="n">
-        <v>118554.6345081626</v>
+        <v>118554.6345081624</v>
       </c>
       <c r="K6" t="n">
         <v>229569.0998531528</v>
       </c>
       <c r="L6" t="n">
-        <v>229569.0998531526</v>
+        <v>229569.0998531527</v>
       </c>
       <c r="M6" t="n">
-        <v>177186.2343704744</v>
+        <v>177028.5848683229</v>
       </c>
       <c r="N6" t="n">
-        <v>209322.7468852528</v>
+        <v>209165.0973831014</v>
       </c>
       <c r="O6" t="n">
-        <v>178706.0753333738</v>
+        <v>178310.0271904723</v>
       </c>
       <c r="P6" t="n">
-        <v>178706.0753333738</v>
+        <v>178310.0271904724</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332373</v>
       </c>
       <c r="F3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332373</v>
       </c>
       <c r="G3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332373</v>
       </c>
       <c r="H3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332373</v>
       </c>
       <c r="I3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332373</v>
       </c>
       <c r="J3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332373</v>
       </c>
       <c r="K3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332373</v>
       </c>
       <c r="L3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332373</v>
       </c>
       <c r="M3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332373</v>
       </c>
       <c r="N3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332373</v>
       </c>
       <c r="O3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332373</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332373</v>
       </c>
     </row>
     <row r="4">
@@ -26804,31 +26804,31 @@
         <v>757.3878780277666</v>
       </c>
       <c r="G4" t="n">
-        <v>1066.082765511332</v>
+        <v>1066.082765511331</v>
       </c>
       <c r="H4" t="n">
-        <v>1066.082765511332</v>
+        <v>1066.082765511331</v>
       </c>
       <c r="I4" t="n">
-        <v>1270.218137992563</v>
+        <v>1270.218137992564</v>
       </c>
       <c r="J4" t="n">
-        <v>1270.218137992563</v>
+        <v>1270.218137992564</v>
       </c>
       <c r="K4" t="n">
         <v>1270.218137992564</v>
       </c>
       <c r="L4" t="n">
-        <v>1270.218137992564</v>
+        <v>1270.218137992563</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.082765511332</v>
+        <v>1066.082765511331</v>
       </c>
       <c r="N4" t="n">
-        <v>1066.082765511332</v>
+        <v>1066.082765511331</v>
       </c>
       <c r="O4" t="n">
-        <v>757.3878780277665</v>
+        <v>757.3878780277666</v>
       </c>
       <c r="P4" t="n">
         <v>757.3878780277665</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332373</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>308.6948874835651</v>
+        <v>308.6948874835648</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>204.1353724812318</v>
+        <v>204.1353724812323</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>128.9566480264303</v>
+        <v>128.9566480264302</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>308.6948874835651</v>
+        <v>308.6948874835648</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0.3793744531705556</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27387,13 +27387,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>80.5785825941407</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27441,7 +27441,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.61142988995996</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>107.3183941026213</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.1459163989608</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>12.57673674162129</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>100.8476018541753</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -27839,7 +27839,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>370.3579796189766</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>12.57673674162123</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -28031,7 +28031,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>62.3209926969612</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>176.8611969831991</v>
       </c>
     </row>
     <row r="11">
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8002387900833652</v>
+        <v>0.8002387900833653</v>
       </c>
       <c r="H11" t="n">
-        <v>8.195445508941265</v>
+        <v>8.195445508941267</v>
       </c>
       <c r="I11" t="n">
         <v>30.85120595468897</v>
       </c>
       <c r="J11" t="n">
-        <v>67.91926700983808</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K11" t="n">
         <v>101.793374994067</v>
@@ -31782,7 +31782,7 @@
         <v>115.0753383124756</v>
       </c>
       <c r="Q11" t="n">
-        <v>86.41678664261507</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R11" t="n">
         <v>50.26799989757424</v>
@@ -31794,7 +31794,7 @@
         <v>3.503045303589933</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0640191032066692</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,19 +31834,19 @@
         <v>0.4281654998073405</v>
       </c>
       <c r="H12" t="n">
-        <v>4.135177327086684</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I12" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J12" t="n">
-        <v>40.45225013749966</v>
+        <v>40.45225013749967</v>
       </c>
       <c r="K12" t="n">
-        <v>69.13933862459147</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L12" t="n">
-        <v>92.96637310509821</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M12" t="n">
         <v>108.4873724731143</v>
@@ -31864,10 +31864,10 @@
         <v>54.65495046663526</v>
       </c>
       <c r="R12" t="n">
-        <v>26.5838193652312</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S12" t="n">
-        <v>7.952986367035464</v>
+        <v>7.952986367035465</v>
       </c>
       <c r="T12" t="n">
         <v>1.72580743124099</v>
@@ -31922,31 +31922,31 @@
         <v>25.37844174231944</v>
       </c>
       <c r="K13" t="n">
-        <v>41.70457573188149</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L13" t="n">
-        <v>53.36749855392725</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M13" t="n">
-        <v>56.26854454967392</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N13" t="n">
-        <v>54.93060432666368</v>
+        <v>54.93060432666369</v>
       </c>
       <c r="O13" t="n">
-        <v>50.73730387161924</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P13" t="n">
         <v>43.41452860226536</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.05796925401882</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R13" t="n">
-        <v>16.14012766587526</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S13" t="n">
-        <v>6.255686359782223</v>
+        <v>6.255686359782224</v>
       </c>
       <c r="T13" t="n">
         <v>1.533736353206909</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8002387900833652</v>
+        <v>0.8002387900833653</v>
       </c>
       <c r="H14" t="n">
-        <v>8.195445508941265</v>
+        <v>8.195445508941267</v>
       </c>
       <c r="I14" t="n">
         <v>30.85120595468897</v>
       </c>
       <c r="J14" t="n">
-        <v>67.91926700983808</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K14" t="n">
         <v>101.793374994067</v>
@@ -32019,7 +32019,7 @@
         <v>115.0753383124756</v>
       </c>
       <c r="Q14" t="n">
-        <v>86.41678664261507</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R14" t="n">
         <v>50.26799989757424</v>
@@ -32031,7 +32031,7 @@
         <v>3.503045303589933</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0640191032066692</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,19 +32071,19 @@
         <v>0.4281654998073405</v>
       </c>
       <c r="H15" t="n">
-        <v>4.135177327086684</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I15" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J15" t="n">
-        <v>40.45225013749966</v>
+        <v>40.45225013749967</v>
       </c>
       <c r="K15" t="n">
-        <v>69.13933862459147</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L15" t="n">
-        <v>92.96637310509821</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M15" t="n">
         <v>108.4873724731143</v>
@@ -32101,10 +32101,10 @@
         <v>54.65495046663526</v>
       </c>
       <c r="R15" t="n">
-        <v>26.5838193652312</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S15" t="n">
-        <v>7.952986367035464</v>
+        <v>7.952986367035465</v>
       </c>
       <c r="T15" t="n">
         <v>1.72580743124099</v>
@@ -32159,31 +32159,31 @@
         <v>25.37844174231944</v>
       </c>
       <c r="K16" t="n">
-        <v>41.70457573188149</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L16" t="n">
-        <v>53.36749855392725</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M16" t="n">
-        <v>56.26854454967392</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N16" t="n">
-        <v>54.93060432666368</v>
+        <v>54.93060432666369</v>
       </c>
       <c r="O16" t="n">
-        <v>50.73730387161924</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P16" t="n">
         <v>43.41452860226536</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.05796925401882</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R16" t="n">
-        <v>16.14012766587526</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S16" t="n">
-        <v>6.255686359782223</v>
+        <v>6.255686359782224</v>
       </c>
       <c r="T16" t="n">
         <v>1.533736353206909</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8002387900833652</v>
+        <v>0.8002387900833654</v>
       </c>
       <c r="H17" t="n">
-        <v>8.195445508941265</v>
+        <v>8.195445508941269</v>
       </c>
       <c r="I17" t="n">
-        <v>30.85120595468897</v>
+        <v>30.85120595468898</v>
       </c>
       <c r="J17" t="n">
-        <v>67.91926700983808</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K17" t="n">
         <v>101.793374994067</v>
@@ -32256,19 +32256,19 @@
         <v>115.0753383124756</v>
       </c>
       <c r="Q17" t="n">
-        <v>86.41678664261507</v>
+        <v>86.41678664261509</v>
       </c>
       <c r="R17" t="n">
-        <v>50.26799989757424</v>
+        <v>50.26799989757425</v>
       </c>
       <c r="S17" t="n">
-        <v>18.2354414290247</v>
+        <v>18.23544142902471</v>
       </c>
       <c r="T17" t="n">
-        <v>3.503045303589933</v>
+        <v>3.503045303589934</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0640191032066692</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4281654998073405</v>
+        <v>0.4281654998073406</v>
       </c>
       <c r="H18" t="n">
-        <v>4.135177327086684</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I18" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J18" t="n">
-        <v>40.45225013749966</v>
+        <v>40.45225013749968</v>
       </c>
       <c r="K18" t="n">
-        <v>69.13933862459147</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L18" t="n">
-        <v>92.96637310509821</v>
+        <v>92.96637310509824</v>
       </c>
       <c r="M18" t="n">
         <v>108.4873724731143</v>
@@ -32332,22 +32332,22 @@
         <v>101.8714643335474</v>
       </c>
       <c r="P18" t="n">
-        <v>81.76083127461401</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.65495046663526</v>
+        <v>54.65495046663527</v>
       </c>
       <c r="R18" t="n">
-        <v>26.5838193652312</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S18" t="n">
-        <v>7.952986367035464</v>
+        <v>7.952986367035466</v>
       </c>
       <c r="T18" t="n">
-        <v>1.72580743124099</v>
+        <v>1.725807431240991</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02816878288206189</v>
+        <v>0.0281687828820619</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3589595720271491</v>
+        <v>0.3589595720271492</v>
       </c>
       <c r="H19" t="n">
-        <v>3.191476922205019</v>
+        <v>3.19147692220502</v>
       </c>
       <c r="I19" t="n">
         <v>10.79489331150736</v>
       </c>
       <c r="J19" t="n">
-        <v>25.37844174231944</v>
+        <v>25.37844174231945</v>
       </c>
       <c r="K19" t="n">
-        <v>41.70457573188149</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L19" t="n">
-        <v>53.36749855392725</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M19" t="n">
-        <v>56.26854454967392</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N19" t="n">
-        <v>54.93060432666368</v>
+        <v>54.9306043266637</v>
       </c>
       <c r="O19" t="n">
-        <v>50.73730387161924</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P19" t="n">
-        <v>43.41452860226536</v>
+        <v>43.41452860226537</v>
       </c>
       <c r="Q19" t="n">
-        <v>30.05796925401882</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R19" t="n">
-        <v>16.14012766587526</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S19" t="n">
-        <v>6.255686359782223</v>
+        <v>6.255686359782225</v>
       </c>
       <c r="T19" t="n">
-        <v>1.533736353206909</v>
+        <v>1.53373635320691</v>
       </c>
       <c r="U19" t="n">
         <v>0.0195796130196627</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8002387900833652</v>
+        <v>0.8002387900833653</v>
       </c>
       <c r="H20" t="n">
-        <v>8.195445508941265</v>
+        <v>8.195445508941267</v>
       </c>
       <c r="I20" t="n">
         <v>30.85120595468897</v>
       </c>
       <c r="J20" t="n">
-        <v>67.91926700983808</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K20" t="n">
         <v>101.793374994067</v>
@@ -32493,7 +32493,7 @@
         <v>115.0753383124756</v>
       </c>
       <c r="Q20" t="n">
-        <v>86.41678664261507</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R20" t="n">
         <v>50.26799989757424</v>
@@ -32505,7 +32505,7 @@
         <v>3.503045303589933</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0640191032066692</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,19 +32545,19 @@
         <v>0.4281654998073405</v>
       </c>
       <c r="H21" t="n">
-        <v>4.135177327086684</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I21" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J21" t="n">
-        <v>40.45225013749966</v>
+        <v>40.45225013749967</v>
       </c>
       <c r="K21" t="n">
-        <v>69.13933862459147</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L21" t="n">
-        <v>92.96637310509821</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M21" t="n">
         <v>108.4873724731143</v>
@@ -32575,10 +32575,10 @@
         <v>54.65495046663526</v>
       </c>
       <c r="R21" t="n">
-        <v>26.5838193652312</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S21" t="n">
-        <v>7.952986367035464</v>
+        <v>7.952986367035465</v>
       </c>
       <c r="T21" t="n">
         <v>1.72580743124099</v>
@@ -32633,31 +32633,31 @@
         <v>25.37844174231944</v>
       </c>
       <c r="K22" t="n">
-        <v>41.70457573188149</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L22" t="n">
-        <v>53.36749855392725</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M22" t="n">
-        <v>56.26854454967392</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N22" t="n">
-        <v>54.93060432666368</v>
+        <v>54.93060432666369</v>
       </c>
       <c r="O22" t="n">
-        <v>50.73730387161924</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P22" t="n">
         <v>43.41452860226536</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.05796925401882</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R22" t="n">
-        <v>16.14012766587526</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S22" t="n">
-        <v>6.255686359782223</v>
+        <v>6.255686359782224</v>
       </c>
       <c r="T22" t="n">
         <v>1.533736353206909</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8002387900833652</v>
+        <v>0.8002387900833653</v>
       </c>
       <c r="H23" t="n">
-        <v>8.195445508941265</v>
+        <v>8.195445508941267</v>
       </c>
       <c r="I23" t="n">
         <v>30.85120595468897</v>
       </c>
       <c r="J23" t="n">
-        <v>67.91926700983808</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K23" t="n">
         <v>101.793374994067</v>
@@ -32730,7 +32730,7 @@
         <v>115.0753383124756</v>
       </c>
       <c r="Q23" t="n">
-        <v>86.41678664261507</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R23" t="n">
         <v>50.26799989757424</v>
@@ -32742,7 +32742,7 @@
         <v>3.503045303589933</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0640191032066692</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,19 +32782,19 @@
         <v>0.4281654998073405</v>
       </c>
       <c r="H24" t="n">
-        <v>4.135177327086684</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I24" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J24" t="n">
-        <v>40.45225013749966</v>
+        <v>40.45225013749967</v>
       </c>
       <c r="K24" t="n">
-        <v>69.13933862459147</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L24" t="n">
-        <v>92.96637310509821</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M24" t="n">
         <v>108.4873724731143</v>
@@ -32812,10 +32812,10 @@
         <v>54.65495046663526</v>
       </c>
       <c r="R24" t="n">
-        <v>26.5838193652312</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S24" t="n">
-        <v>7.952986367035464</v>
+        <v>7.952986367035465</v>
       </c>
       <c r="T24" t="n">
         <v>1.72580743124099</v>
@@ -32870,31 +32870,31 @@
         <v>25.37844174231944</v>
       </c>
       <c r="K25" t="n">
-        <v>41.70457573188149</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L25" t="n">
-        <v>53.36749855392725</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M25" t="n">
-        <v>56.26854454967392</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N25" t="n">
-        <v>54.93060432666368</v>
+        <v>54.93060432666369</v>
       </c>
       <c r="O25" t="n">
-        <v>50.73730387161924</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P25" t="n">
         <v>43.41452860226536</v>
       </c>
       <c r="Q25" t="n">
-        <v>30.05796925401882</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R25" t="n">
-        <v>16.14012766587526</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S25" t="n">
-        <v>6.255686359782223</v>
+        <v>6.255686359782224</v>
       </c>
       <c r="T25" t="n">
         <v>1.533736353206909</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8002387900833652</v>
+        <v>0.8002387900833653</v>
       </c>
       <c r="H26" t="n">
-        <v>8.195445508941265</v>
+        <v>8.195445508941267</v>
       </c>
       <c r="I26" t="n">
         <v>30.85120595468897</v>
       </c>
       <c r="J26" t="n">
-        <v>67.91926700983808</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K26" t="n">
         <v>101.793374994067</v>
@@ -32967,7 +32967,7 @@
         <v>115.0753383124756</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.41678664261507</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R26" t="n">
         <v>50.26799989757424</v>
@@ -32979,7 +32979,7 @@
         <v>3.503045303589933</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0640191032066692</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,19 +33019,19 @@
         <v>0.4281654998073405</v>
       </c>
       <c r="H27" t="n">
-        <v>4.135177327086684</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I27" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J27" t="n">
-        <v>40.45225013749966</v>
+        <v>40.45225013749967</v>
       </c>
       <c r="K27" t="n">
-        <v>69.13933862459147</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L27" t="n">
-        <v>92.96637310509821</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M27" t="n">
         <v>108.4873724731143</v>
@@ -33049,10 +33049,10 @@
         <v>54.65495046663526</v>
       </c>
       <c r="R27" t="n">
-        <v>26.5838193652312</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S27" t="n">
-        <v>7.952986367035464</v>
+        <v>7.952986367035465</v>
       </c>
       <c r="T27" t="n">
         <v>1.72580743124099</v>
@@ -33107,31 +33107,31 @@
         <v>25.37844174231944</v>
       </c>
       <c r="K28" t="n">
-        <v>41.70457573188149</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L28" t="n">
-        <v>53.36749855392725</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M28" t="n">
-        <v>56.26854454967392</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N28" t="n">
-        <v>54.93060432666368</v>
+        <v>54.93060432666369</v>
       </c>
       <c r="O28" t="n">
-        <v>50.73730387161924</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P28" t="n">
         <v>43.41452860226536</v>
       </c>
       <c r="Q28" t="n">
-        <v>30.05796925401882</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R28" t="n">
-        <v>16.14012766587526</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S28" t="n">
-        <v>6.255686359782223</v>
+        <v>6.255686359782224</v>
       </c>
       <c r="T28" t="n">
         <v>1.533736353206909</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8002387900833652</v>
+        <v>0.8002387900833653</v>
       </c>
       <c r="H29" t="n">
-        <v>8.195445508941265</v>
+        <v>8.195445508941267</v>
       </c>
       <c r="I29" t="n">
         <v>30.85120595468897</v>
       </c>
       <c r="J29" t="n">
-        <v>67.91926700983808</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K29" t="n">
         <v>101.793374994067</v>
@@ -33204,7 +33204,7 @@
         <v>115.0753383124756</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.41678664261507</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R29" t="n">
         <v>50.26799989757424</v>
@@ -33216,7 +33216,7 @@
         <v>3.503045303589933</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0640191032066692</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,19 +33256,19 @@
         <v>0.4281654998073405</v>
       </c>
       <c r="H30" t="n">
-        <v>4.135177327086684</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I30" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J30" t="n">
-        <v>40.45225013749966</v>
+        <v>40.45225013749967</v>
       </c>
       <c r="K30" t="n">
-        <v>69.13933862459147</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L30" t="n">
-        <v>92.96637310509821</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M30" t="n">
         <v>108.4873724731143</v>
@@ -33286,10 +33286,10 @@
         <v>54.65495046663526</v>
       </c>
       <c r="R30" t="n">
-        <v>26.5838193652312</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S30" t="n">
-        <v>7.952986367035464</v>
+        <v>7.952986367035465</v>
       </c>
       <c r="T30" t="n">
         <v>1.72580743124099</v>
@@ -33344,31 +33344,31 @@
         <v>25.37844174231944</v>
       </c>
       <c r="K31" t="n">
-        <v>41.70457573188149</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L31" t="n">
-        <v>53.36749855392725</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M31" t="n">
-        <v>56.26854454967392</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N31" t="n">
-        <v>54.93060432666368</v>
+        <v>54.93060432666369</v>
       </c>
       <c r="O31" t="n">
-        <v>50.73730387161924</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P31" t="n">
         <v>43.41452860226536</v>
       </c>
       <c r="Q31" t="n">
-        <v>30.05796925401882</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R31" t="n">
-        <v>16.14012766587526</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S31" t="n">
-        <v>6.255686359782223</v>
+        <v>6.255686359782224</v>
       </c>
       <c r="T31" t="n">
         <v>1.533736353206909</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8002387900833652</v>
+        <v>0.8002387900833653</v>
       </c>
       <c r="H32" t="n">
-        <v>8.195445508941265</v>
+        <v>8.195445508941267</v>
       </c>
       <c r="I32" t="n">
         <v>30.85120595468897</v>
       </c>
       <c r="J32" t="n">
-        <v>67.91926700983808</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K32" t="n">
         <v>101.793374994067</v>
@@ -33441,7 +33441,7 @@
         <v>115.0753383124756</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.41678664261507</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R32" t="n">
         <v>50.26799989757424</v>
@@ -33453,7 +33453,7 @@
         <v>3.503045303589933</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0640191032066692</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,19 +33493,19 @@
         <v>0.4281654998073405</v>
       </c>
       <c r="H33" t="n">
-        <v>4.135177327086684</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I33" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J33" t="n">
-        <v>40.45225013749966</v>
+        <v>40.45225013749967</v>
       </c>
       <c r="K33" t="n">
-        <v>69.13933862459147</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L33" t="n">
-        <v>92.96637310509821</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M33" t="n">
         <v>108.4873724731143</v>
@@ -33523,10 +33523,10 @@
         <v>54.65495046663526</v>
       </c>
       <c r="R33" t="n">
-        <v>26.5838193652312</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S33" t="n">
-        <v>7.952986367035464</v>
+        <v>7.952986367035465</v>
       </c>
       <c r="T33" t="n">
         <v>1.72580743124099</v>
@@ -33581,31 +33581,31 @@
         <v>25.37844174231944</v>
       </c>
       <c r="K34" t="n">
-        <v>41.70457573188149</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L34" t="n">
-        <v>53.36749855392725</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M34" t="n">
-        <v>56.26854454967392</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N34" t="n">
-        <v>54.93060432666368</v>
+        <v>54.93060432666369</v>
       </c>
       <c r="O34" t="n">
-        <v>50.73730387161924</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P34" t="n">
         <v>43.41452860226536</v>
       </c>
       <c r="Q34" t="n">
-        <v>30.05796925401882</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R34" t="n">
-        <v>16.14012766587526</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S34" t="n">
-        <v>6.255686359782223</v>
+        <v>6.255686359782224</v>
       </c>
       <c r="T34" t="n">
         <v>1.533736353206909</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8002387900833652</v>
+        <v>0.8002387900833653</v>
       </c>
       <c r="H35" t="n">
-        <v>8.195445508941265</v>
+        <v>8.195445508941267</v>
       </c>
       <c r="I35" t="n">
         <v>30.85120595468897</v>
       </c>
       <c r="J35" t="n">
-        <v>67.91926700983808</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K35" t="n">
         <v>101.793374994067</v>
@@ -33678,7 +33678,7 @@
         <v>115.0753383124756</v>
       </c>
       <c r="Q35" t="n">
-        <v>86.41678664261507</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R35" t="n">
         <v>50.26799989757424</v>
@@ -33690,7 +33690,7 @@
         <v>3.503045303589933</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0640191032066692</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,19 +33730,19 @@
         <v>0.4281654998073405</v>
       </c>
       <c r="H36" t="n">
-        <v>4.135177327086684</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I36" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J36" t="n">
-        <v>40.45225013749966</v>
+        <v>40.45225013749967</v>
       </c>
       <c r="K36" t="n">
-        <v>69.13933862459147</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L36" t="n">
-        <v>92.96637310509821</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M36" t="n">
         <v>108.4873724731143</v>
@@ -33760,10 +33760,10 @@
         <v>54.65495046663526</v>
       </c>
       <c r="R36" t="n">
-        <v>26.5838193652312</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S36" t="n">
-        <v>7.952986367035464</v>
+        <v>7.952986367035465</v>
       </c>
       <c r="T36" t="n">
         <v>1.72580743124099</v>
@@ -33818,31 +33818,31 @@
         <v>25.37844174231944</v>
       </c>
       <c r="K37" t="n">
-        <v>41.70457573188149</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L37" t="n">
-        <v>53.36749855392725</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M37" t="n">
-        <v>56.26854454967392</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N37" t="n">
-        <v>54.93060432666368</v>
+        <v>54.93060432666369</v>
       </c>
       <c r="O37" t="n">
-        <v>50.73730387161924</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P37" t="n">
         <v>43.41452860226536</v>
       </c>
       <c r="Q37" t="n">
-        <v>30.05796925401882</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R37" t="n">
-        <v>16.14012766587526</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S37" t="n">
-        <v>6.255686359782223</v>
+        <v>6.255686359782224</v>
       </c>
       <c r="T37" t="n">
         <v>1.533736353206909</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8002387900833652</v>
+        <v>0.8002387900833653</v>
       </c>
       <c r="H38" t="n">
-        <v>8.195445508941265</v>
+        <v>8.195445508941267</v>
       </c>
       <c r="I38" t="n">
         <v>30.85120595468897</v>
       </c>
       <c r="J38" t="n">
-        <v>67.91926700983808</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K38" t="n">
         <v>101.793374994067</v>
@@ -33915,7 +33915,7 @@
         <v>115.0753383124756</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.41678664261507</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R38" t="n">
         <v>50.26799989757424</v>
@@ -33927,7 +33927,7 @@
         <v>3.503045303589933</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0640191032066692</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,19 +33967,19 @@
         <v>0.4281654998073405</v>
       </c>
       <c r="H39" t="n">
-        <v>4.135177327086684</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I39" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J39" t="n">
-        <v>40.45225013749966</v>
+        <v>40.45225013749967</v>
       </c>
       <c r="K39" t="n">
-        <v>69.13933862459147</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L39" t="n">
-        <v>92.96637310509821</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M39" t="n">
         <v>108.4873724731143</v>
@@ -33997,10 +33997,10 @@
         <v>54.65495046663526</v>
       </c>
       <c r="R39" t="n">
-        <v>26.5838193652312</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S39" t="n">
-        <v>7.952986367035464</v>
+        <v>7.952986367035465</v>
       </c>
       <c r="T39" t="n">
         <v>1.72580743124099</v>
@@ -34055,31 +34055,31 @@
         <v>25.37844174231944</v>
       </c>
       <c r="K40" t="n">
-        <v>41.70457573188149</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L40" t="n">
-        <v>53.36749855392725</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M40" t="n">
-        <v>56.26854454967392</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N40" t="n">
-        <v>54.93060432666368</v>
+        <v>54.93060432666369</v>
       </c>
       <c r="O40" t="n">
-        <v>50.73730387161924</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P40" t="n">
         <v>43.41452860226536</v>
       </c>
       <c r="Q40" t="n">
-        <v>30.05796925401882</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R40" t="n">
-        <v>16.14012766587526</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S40" t="n">
-        <v>6.255686359782223</v>
+        <v>6.255686359782224</v>
       </c>
       <c r="T40" t="n">
         <v>1.533736353206909</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8002387900833652</v>
+        <v>0.8002387900833653</v>
       </c>
       <c r="H41" t="n">
-        <v>8.195445508941265</v>
+        <v>8.195445508941267</v>
       </c>
       <c r="I41" t="n">
         <v>30.85120595468897</v>
       </c>
       <c r="J41" t="n">
-        <v>67.91926700983808</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K41" t="n">
         <v>101.793374994067</v>
@@ -34152,7 +34152,7 @@
         <v>115.0753383124756</v>
       </c>
       <c r="Q41" t="n">
-        <v>86.41678664261507</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R41" t="n">
         <v>50.26799989757424</v>
@@ -34164,7 +34164,7 @@
         <v>3.503045303589933</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0640191032066692</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,19 +34204,19 @@
         <v>0.4281654998073405</v>
       </c>
       <c r="H42" t="n">
-        <v>4.135177327086684</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I42" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J42" t="n">
-        <v>40.45225013749966</v>
+        <v>40.45225013749967</v>
       </c>
       <c r="K42" t="n">
-        <v>69.13933862459147</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L42" t="n">
-        <v>92.96637310509821</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M42" t="n">
         <v>108.4873724731143</v>
@@ -34234,10 +34234,10 @@
         <v>54.65495046663526</v>
       </c>
       <c r="R42" t="n">
-        <v>26.5838193652312</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S42" t="n">
-        <v>7.952986367035464</v>
+        <v>7.952986367035465</v>
       </c>
       <c r="T42" t="n">
         <v>1.72580743124099</v>
@@ -34292,31 +34292,31 @@
         <v>25.37844174231944</v>
       </c>
       <c r="K43" t="n">
-        <v>41.70457573188149</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L43" t="n">
-        <v>53.36749855392725</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M43" t="n">
-        <v>56.26854454967392</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N43" t="n">
-        <v>54.93060432666368</v>
+        <v>54.93060432666369</v>
       </c>
       <c r="O43" t="n">
-        <v>50.73730387161924</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P43" t="n">
         <v>43.41452860226536</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.05796925401882</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R43" t="n">
-        <v>16.14012766587526</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S43" t="n">
-        <v>6.255686359782223</v>
+        <v>6.255686359782224</v>
       </c>
       <c r="T43" t="n">
         <v>1.533736353206909</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8002387900833652</v>
+        <v>0.8002387900833653</v>
       </c>
       <c r="H44" t="n">
-        <v>8.195445508941265</v>
+        <v>8.195445508941267</v>
       </c>
       <c r="I44" t="n">
         <v>30.85120595468897</v>
       </c>
       <c r="J44" t="n">
-        <v>67.91926700983808</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K44" t="n">
         <v>101.793374994067</v>
@@ -34389,7 +34389,7 @@
         <v>115.0753383124756</v>
       </c>
       <c r="Q44" t="n">
-        <v>86.41678664261507</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R44" t="n">
         <v>50.26799989757424</v>
@@ -34401,7 +34401,7 @@
         <v>3.503045303589933</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0640191032066692</v>
+        <v>0.06401910320666922</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,19 +34441,19 @@
         <v>0.4281654998073405</v>
       </c>
       <c r="H45" t="n">
-        <v>4.135177327086684</v>
+        <v>4.135177327086685</v>
       </c>
       <c r="I45" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J45" t="n">
-        <v>40.45225013749966</v>
+        <v>40.45225013749967</v>
       </c>
       <c r="K45" t="n">
-        <v>69.13933862459147</v>
+        <v>69.13933862459149</v>
       </c>
       <c r="L45" t="n">
-        <v>92.96637310509821</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M45" t="n">
         <v>108.4873724731143</v>
@@ -34471,10 +34471,10 @@
         <v>54.65495046663526</v>
       </c>
       <c r="R45" t="n">
-        <v>26.5838193652312</v>
+        <v>26.58381936523121</v>
       </c>
       <c r="S45" t="n">
-        <v>7.952986367035464</v>
+        <v>7.952986367035465</v>
       </c>
       <c r="T45" t="n">
         <v>1.72580743124099</v>
@@ -34529,31 +34529,31 @@
         <v>25.37844174231944</v>
       </c>
       <c r="K46" t="n">
-        <v>41.70457573188149</v>
+        <v>41.7045757318815</v>
       </c>
       <c r="L46" t="n">
-        <v>53.36749855392725</v>
+        <v>53.36749855392726</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26854454967392</v>
+        <v>56.26854454967393</v>
       </c>
       <c r="N46" t="n">
-        <v>54.93060432666368</v>
+        <v>54.93060432666369</v>
       </c>
       <c r="O46" t="n">
-        <v>50.73730387161924</v>
+        <v>50.73730387161925</v>
       </c>
       <c r="P46" t="n">
         <v>43.41452860226536</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.05796925401882</v>
+        <v>30.05796925401883</v>
       </c>
       <c r="R46" t="n">
-        <v>16.14012766587526</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S46" t="n">
-        <v>6.255686359782223</v>
+        <v>6.255686359782224</v>
       </c>
       <c r="T46" t="n">
         <v>1.533736353206909</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34777,10 +34777,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34935,11 +34935,11 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
@@ -34947,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,19 +35011,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35099,13 +35099,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -35175,25 +35175,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35251,19 +35251,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M9" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P10" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35409,13 +35409,13 @@
         <v>30.43858447555757</v>
       </c>
       <c r="J11" t="n">
-        <v>507.5704664572299</v>
+        <v>67.91926700983809</v>
       </c>
       <c r="K11" t="n">
         <v>757.3878780277666</v>
       </c>
       <c r="L11" t="n">
-        <v>126.2836828660807</v>
+        <v>757.3878780277665</v>
       </c>
       <c r="M11" t="n">
         <v>140.5149294492257</v>
@@ -35424,13 +35424,13 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O11" t="n">
-        <v>134.8312334426587</v>
+        <v>679.8900202615787</v>
       </c>
       <c r="P11" t="n">
-        <v>299.5681451299374</v>
+        <v>115.0753383124757</v>
       </c>
       <c r="Q11" t="n">
-        <v>638.4357623583674</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R11" t="n">
         <v>221.1306915673285</v>
@@ -35488,22 +35488,22 @@
         <v>41.06860562793319</v>
       </c>
       <c r="J12" t="n">
-        <v>40.45225013749968</v>
+        <v>368.2889420225627</v>
       </c>
       <c r="K12" t="n">
-        <v>69.13933862459146</v>
+        <v>560.0827021122758</v>
       </c>
       <c r="L12" t="n">
         <v>92.96637310509823</v>
       </c>
       <c r="M12" t="n">
-        <v>757.3878780277666</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N12" t="n">
-        <v>399.5946017357548</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O12" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335475</v>
       </c>
       <c r="P12" t="n">
         <v>81.76083127461402</v>
@@ -35512,7 +35512,7 @@
         <v>54.65495046663523</v>
       </c>
       <c r="R12" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,13 +35573,13 @@
         <v>319.2383682279781</v>
       </c>
       <c r="L13" t="n">
-        <v>475.8017225619688</v>
+        <v>475.8017225619687</v>
       </c>
       <c r="M13" t="n">
-        <v>520.3936629142328</v>
+        <v>520.3936629142326</v>
       </c>
       <c r="N13" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222646</v>
       </c>
       <c r="O13" t="n">
         <v>474.6456364229136</v>
@@ -35649,10 +35649,10 @@
         <v>507.5704664572299</v>
       </c>
       <c r="K14" t="n">
-        <v>319.3240402601203</v>
+        <v>757.3878780277666</v>
       </c>
       <c r="L14" t="n">
-        <v>126.2836828660808</v>
+        <v>126.2836828660809</v>
       </c>
       <c r="M14" t="n">
         <v>140.5149294492257</v>
@@ -35661,7 +35661,7 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O14" t="n">
-        <v>757.3878780277666</v>
+        <v>319.3240402601202</v>
       </c>
       <c r="P14" t="n">
         <v>115.0753383124757</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>41.06860562793319</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J15" t="n">
-        <v>40.45225013749968</v>
+        <v>368.2889420225627</v>
       </c>
       <c r="K15" t="n">
-        <v>756.748954857296</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L15" t="n">
-        <v>342.4931537545754</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M15" t="n">
-        <v>108.4873724731142</v>
+        <v>108.4873724731143</v>
       </c>
       <c r="N15" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082259</v>
       </c>
       <c r="O15" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P15" t="n">
         <v>81.76083127461402</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.65495046663523</v>
+        <v>571.9252565406402</v>
       </c>
       <c r="R15" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,19 +35807,19 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K16" t="n">
-        <v>319.2383682279781</v>
+        <v>319.2383682279784</v>
       </c>
       <c r="L16" t="n">
         <v>475.8017225619687</v>
       </c>
       <c r="M16" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N16" t="n">
         <v>501.6566681222641</v>
       </c>
       <c r="O16" t="n">
-        <v>474.6456364229141</v>
+        <v>474.6456364229136</v>
       </c>
       <c r="P16" t="n">
         <v>394.4315932187724</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>30.43858447555757</v>
+        <v>30.43858447555758</v>
       </c>
       <c r="J17" t="n">
-        <v>67.91926700983807</v>
+        <v>67.91926700983808</v>
       </c>
       <c r="K17" t="n">
-        <v>101.7933749940669</v>
+        <v>101.793374994067</v>
       </c>
       <c r="L17" t="n">
-        <v>1066.082765511332</v>
+        <v>126.2836828660808</v>
       </c>
       <c r="M17" t="n">
-        <v>1066.082765511332</v>
+        <v>882.5896691299949</v>
       </c>
       <c r="N17" t="n">
-        <v>1066.082765511332</v>
+        <v>1066.082765511331</v>
       </c>
       <c r="O17" t="n">
-        <v>571.0973630474327</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P17" t="n">
-        <v>115.0753383124757</v>
+        <v>951.7519795583307</v>
       </c>
       <c r="Q17" t="n">
-        <v>86.41678664261508</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R17" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673281</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>41.0686056279332</v>
+        <v>14.74166304161238</v>
       </c>
       <c r="J18" t="n">
-        <v>368.2889420225627</v>
+        <v>339.3582999833601</v>
       </c>
       <c r="K18" t="n">
         <v>69.13933862459146</v>
@@ -35971,19 +35971,19 @@
         <v>92.96637310509823</v>
       </c>
       <c r="M18" t="n">
-        <v>599.4307359607986</v>
+        <v>108.4873724731143</v>
       </c>
       <c r="N18" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082259</v>
       </c>
       <c r="O18" t="n">
-        <v>101.8714643335475</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P18" t="n">
         <v>81.76083127461402</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.65495046663523</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R18" t="n">
         <v>144.9401608746653</v>
@@ -36120,16 +36120,16 @@
         <v>30.43858447555757</v>
       </c>
       <c r="J20" t="n">
-        <v>67.91926700983807</v>
+        <v>507.5704664572299</v>
       </c>
       <c r="K20" t="n">
-        <v>944.5714476790952</v>
+        <v>944.5714476790953</v>
       </c>
       <c r="L20" t="n">
-        <v>126.2836828660807</v>
+        <v>680.0859996839652</v>
       </c>
       <c r="M20" t="n">
-        <v>1066.082765511332</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N20" t="n">
         <v>142.7886079115501</v>
@@ -36144,7 +36144,7 @@
         <v>638.4357623583674</v>
       </c>
       <c r="R20" t="n">
-        <v>118.153680100746</v>
+        <v>50.26799989757455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>40.45225013749968</v>
       </c>
       <c r="K21" t="n">
-        <v>69.13933862459146</v>
+        <v>486.401729979886</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.4297125736</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M21" t="n">
-        <v>108.4873724731142</v>
+        <v>108.4873724731143</v>
       </c>
       <c r="N21" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082259</v>
       </c>
       <c r="O21" t="n">
-        <v>101.8714643335475</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P21" t="n">
         <v>81.76083127461402</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.65495046663523</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R21" t="n">
         <v>26.58381936523119</v>
@@ -36360,19 +36360,19 @@
         <v>507.5704664572299</v>
       </c>
       <c r="K23" t="n">
-        <v>101.793374994067</v>
+        <v>944.5714476790954</v>
       </c>
       <c r="L23" t="n">
-        <v>126.2836828660808</v>
+        <v>126.2836828660809</v>
       </c>
       <c r="M23" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N23" t="n">
-        <v>1270.218137992563</v>
+        <v>343.9413578638471</v>
       </c>
       <c r="O23" t="n">
-        <v>1041.412997282107</v>
+        <v>1124.911704725797</v>
       </c>
       <c r="P23" t="n">
         <v>951.7519795583303</v>
@@ -36436,31 +36436,31 @@
         <v>14.74166304161238</v>
       </c>
       <c r="J24" t="n">
-        <v>40.45225013749968</v>
+        <v>368.2889420225627</v>
       </c>
       <c r="K24" t="n">
         <v>69.13933862459146</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.429712573601</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M24" t="n">
-        <v>108.4873724731142</v>
+        <v>108.4873724731143</v>
       </c>
       <c r="N24" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082259</v>
       </c>
       <c r="O24" t="n">
-        <v>101.8714643335475</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P24" t="n">
         <v>81.76083127461402</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.65495046663523</v>
+        <v>571.9252565406405</v>
       </c>
       <c r="R24" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K25" t="n">
-        <v>319.2383682279781</v>
+        <v>319.238368227978</v>
       </c>
       <c r="L25" t="n">
         <v>475.8017225619687</v>
       </c>
       <c r="M25" t="n">
-        <v>520.3936629142327</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N25" t="n">
         <v>501.6566681222644</v>
       </c>
       <c r="O25" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229139</v>
       </c>
       <c r="P25" t="n">
-        <v>394.4315932187719</v>
+        <v>394.4315932187724</v>
       </c>
       <c r="Q25" t="n">
-        <v>199.9496610361721</v>
+        <v>199.9496610361725</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>30.43858447555757</v>
       </c>
       <c r="J26" t="n">
-        <v>345.6857259638606</v>
+        <v>67.91926700983808</v>
       </c>
       <c r="K26" t="n">
-        <v>944.5714476790953</v>
+        <v>101.793374994067</v>
       </c>
       <c r="L26" t="n">
         <v>1212.202840697252</v>
       </c>
       <c r="M26" t="n">
-        <v>140.5149294492257</v>
+        <v>1123.710402290403</v>
       </c>
       <c r="N26" t="n">
-        <v>142.7886079115501</v>
+        <v>1270.218137992564</v>
       </c>
       <c r="O26" t="n">
-        <v>1124.911704725797</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P26" t="n">
         <v>951.7519795583303</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>41.06860562793318</v>
+        <v>14.74166304161238</v>
       </c>
       <c r="J27" t="n">
-        <v>368.2889420225626</v>
+        <v>339.3582999833601</v>
       </c>
       <c r="K27" t="n">
         <v>69.13933862459146</v>
       </c>
       <c r="L27" t="n">
-        <v>92.96637310509823</v>
+        <v>92.96637310509834</v>
       </c>
       <c r="M27" t="n">
         <v>108.4873724731143</v>
       </c>
       <c r="N27" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082259</v>
       </c>
       <c r="O27" t="n">
         <v>101.8714643335474</v>
       </c>
       <c r="P27" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q27" t="n">
         <v>600.8558985798429</v>
       </c>
       <c r="R27" t="n">
-        <v>89.68257624914236</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>319.238368227978</v>
       </c>
       <c r="L28" t="n">
-        <v>475.8017225619689</v>
+        <v>475.8017225619687</v>
       </c>
       <c r="M28" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N28" t="n">
         <v>501.6566681222644</v>
       </c>
       <c r="O28" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229139</v>
       </c>
       <c r="P28" t="n">
         <v>394.4315932187724</v>
@@ -36831,22 +36831,22 @@
         <v>30.43858447555757</v>
       </c>
       <c r="J29" t="n">
-        <v>67.91926700983808</v>
+        <v>507.5704664572299</v>
       </c>
       <c r="K29" t="n">
-        <v>670.3189309173664</v>
+        <v>944.5714476790954</v>
       </c>
       <c r="L29" t="n">
         <v>1212.202840697252</v>
       </c>
       <c r="M29" t="n">
-        <v>140.5149294492257</v>
+        <v>245.8289928534887</v>
       </c>
       <c r="N29" t="n">
         <v>142.7886079115501</v>
       </c>
       <c r="O29" t="n">
-        <v>1124.911704725797</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P29" t="n">
         <v>951.7519795583303</v>
@@ -36855,7 +36855,7 @@
         <v>638.4357623583674</v>
       </c>
       <c r="R29" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>14.74166304161238</v>
       </c>
       <c r="J30" t="n">
-        <v>40.45225013749966</v>
+        <v>368.2889420225627</v>
       </c>
       <c r="K30" t="n">
-        <v>486.4017299798861</v>
+        <v>69.13933862459152</v>
       </c>
       <c r="L30" t="n">
         <v>92.96637310509823</v>
@@ -36931,10 +36931,10 @@
         <v>81.76083127461402</v>
       </c>
       <c r="Q30" t="n">
-        <v>600.8558985798429</v>
+        <v>571.9252565406405</v>
       </c>
       <c r="R30" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37007,7 +37007,7 @@
         <v>474.6456364229139</v>
       </c>
       <c r="P31" t="n">
-        <v>394.4315932187719</v>
+        <v>394.4315932187724</v>
       </c>
       <c r="Q31" t="n">
         <v>199.9496610361725</v>
@@ -37068,31 +37068,31 @@
         <v>30.43858447555757</v>
       </c>
       <c r="J32" t="n">
-        <v>67.91926700983808</v>
+        <v>507.5704664572299</v>
       </c>
       <c r="K32" t="n">
-        <v>944.5714476790953</v>
+        <v>944.5714476790954</v>
       </c>
       <c r="L32" t="n">
-        <v>1212.202840697252</v>
+        <v>126.2836828660809</v>
       </c>
       <c r="M32" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N32" t="n">
-        <v>142.7886079115501</v>
+        <v>343.9413578638453</v>
       </c>
       <c r="O32" t="n">
-        <v>1124.911704725796</v>
+        <v>1124.911704725797</v>
       </c>
       <c r="P32" t="n">
         <v>951.7519795583303</v>
       </c>
       <c r="Q32" t="n">
-        <v>364.1832455966387</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R32" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>14.74166304161238</v>
       </c>
       <c r="J33" t="n">
-        <v>339.3582999833604</v>
+        <v>368.2889420225627</v>
       </c>
       <c r="K33" t="n">
-        <v>69.13933862459146</v>
+        <v>69.13933862459152</v>
       </c>
       <c r="L33" t="n">
         <v>92.96637310509823</v>
@@ -37159,7 +37159,7 @@
         <v>108.4873724731143</v>
       </c>
       <c r="N33" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082259</v>
       </c>
       <c r="O33" t="n">
         <v>101.8714643335474</v>
@@ -37168,7 +37168,7 @@
         <v>81.76083127461402</v>
       </c>
       <c r="Q33" t="n">
-        <v>600.8558985798429</v>
+        <v>571.9252565406405</v>
       </c>
       <c r="R33" t="n">
         <v>144.9401608746653</v>
@@ -37305,13 +37305,13 @@
         <v>30.43858447555757</v>
       </c>
       <c r="J35" t="n">
-        <v>67.91926700983807</v>
+        <v>507.5704664572299</v>
       </c>
       <c r="K35" t="n">
-        <v>944.5714476790952</v>
+        <v>567.1222324283068</v>
       </c>
       <c r="L35" t="n">
-        <v>126.2836828660807</v>
+        <v>126.2836828660809</v>
       </c>
       <c r="M35" t="n">
         <v>140.5149294492257</v>
@@ -37320,16 +37320,16 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O35" t="n">
-        <v>1066.082765511332</v>
+        <v>1066.082765511331</v>
       </c>
       <c r="P35" t="n">
-        <v>951.7519795583307</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q35" t="n">
         <v>638.4357623583674</v>
       </c>
       <c r="R35" t="n">
-        <v>112.4699840941785</v>
+        <v>50.26799989757455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>41.0686056279332</v>
+        <v>14.74166304161238</v>
       </c>
       <c r="J36" t="n">
-        <v>313.0313573970394</v>
+        <v>368.2889420225627</v>
       </c>
       <c r="K36" t="n">
         <v>69.13933862459146</v>
@@ -37396,16 +37396,16 @@
         <v>108.4873724731143</v>
       </c>
       <c r="N36" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082259</v>
       </c>
       <c r="O36" t="n">
         <v>101.8714643335474</v>
       </c>
       <c r="P36" t="n">
-        <v>81.76083127461402</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q36" t="n">
-        <v>600.8558985798429</v>
+        <v>571.9252565406405</v>
       </c>
       <c r="R36" t="n">
         <v>144.9401608746653</v>
@@ -37548,7 +37548,7 @@
         <v>944.5714476790953</v>
       </c>
       <c r="L38" t="n">
-        <v>680.0859996839661</v>
+        <v>126.2836828660809</v>
       </c>
       <c r="M38" t="n">
         <v>140.5149294492257</v>
@@ -37557,7 +37557,7 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O38" t="n">
-        <v>134.8312334426587</v>
+        <v>688.633550260543</v>
       </c>
       <c r="P38" t="n">
         <v>951.7519795583303</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>41.0686056279332</v>
+        <v>14.74166304161238</v>
       </c>
       <c r="J39" t="n">
         <v>368.2889420225627</v>
@@ -37633,7 +37633,7 @@
         <v>108.4873724731143</v>
       </c>
       <c r="N39" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082259</v>
       </c>
       <c r="O39" t="n">
         <v>101.8714643335474</v>
@@ -37642,7 +37642,7 @@
         <v>81.76083127461391</v>
       </c>
       <c r="Q39" t="n">
-        <v>545.5983139543198</v>
+        <v>571.9252565406405</v>
       </c>
       <c r="R39" t="n">
         <v>144.9401608746653</v>
@@ -37709,19 +37709,19 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M40" t="n">
-        <v>520.3936629142331</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N40" t="n">
         <v>501.6566681222644</v>
       </c>
       <c r="O40" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P40" t="n">
         <v>394.4315932187724</v>
       </c>
       <c r="Q40" t="n">
-        <v>199.9496610361721</v>
+        <v>199.9496610361725</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,22 +37788,22 @@
         <v>126.2836828660808</v>
       </c>
       <c r="M41" t="n">
-        <v>140.5149294492257</v>
+        <v>140.5149294492259</v>
       </c>
       <c r="N41" t="n">
-        <v>142.7886079115501</v>
+        <v>142.7886079115502</v>
       </c>
       <c r="O41" t="n">
-        <v>332.6060035785288</v>
+        <v>503.4686952482832</v>
       </c>
       <c r="P41" t="n">
-        <v>757.3878780277664</v>
+        <v>757.3878780277666</v>
       </c>
       <c r="Q41" t="n">
         <v>638.4357623583674</v>
       </c>
       <c r="R41" t="n">
-        <v>221.1306915673285</v>
+        <v>50.2679998975741</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J42" t="n">
-        <v>40.45225013749966</v>
+        <v>339.35829998336</v>
       </c>
       <c r="K42" t="n">
-        <v>69.13933862459147</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L42" t="n">
-        <v>380.8026658204479</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M42" t="n">
         <v>108.4873724731143</v>
       </c>
       <c r="N42" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082259</v>
       </c>
       <c r="O42" t="n">
         <v>101.8714643335474</v>
       </c>
       <c r="P42" t="n">
-        <v>757.3878780277665</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.65495046663523</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R42" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37949,10 +37949,10 @@
         <v>520.3936629142326</v>
       </c>
       <c r="N43" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222646</v>
       </c>
       <c r="O43" t="n">
-        <v>474.6456364229134</v>
+        <v>474.6456364229136</v>
       </c>
       <c r="P43" t="n">
         <v>394.4315932187724</v>
@@ -38016,31 +38016,31 @@
         <v>30.43858447555757</v>
       </c>
       <c r="J44" t="n">
-        <v>67.91926700983808</v>
+        <v>507.5704664572299</v>
       </c>
       <c r="K44" t="n">
-        <v>101.7933749940669</v>
+        <v>757.3878780277666</v>
       </c>
       <c r="L44" t="n">
-        <v>126.2836828660808</v>
+        <v>757.3878780277664</v>
       </c>
       <c r="M44" t="n">
-        <v>140.5149294492258</v>
+        <v>416.785208490508</v>
       </c>
       <c r="N44" t="n">
-        <v>157.6579329097042</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O44" t="n">
-        <v>757.3878780277665</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P44" t="n">
-        <v>757.3878780277664</v>
+        <v>115.0753383124757</v>
       </c>
       <c r="Q44" t="n">
-        <v>638.4357623583674</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R44" t="n">
-        <v>221.1306915673285</v>
+        <v>50.2679998975741</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>41.0686056279332</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J45" t="n">
         <v>368.2889420225627</v>
@@ -38107,7 +38107,7 @@
         <v>108.4873724731143</v>
       </c>
       <c r="N45" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082259</v>
       </c>
       <c r="O45" t="n">
         <v>101.8714643335474</v>
@@ -38116,10 +38116,10 @@
         <v>81.76083127461402</v>
       </c>
       <c r="Q45" t="n">
-        <v>600.8558985798429</v>
+        <v>571.9252565406402</v>
       </c>
       <c r="R45" t="n">
-        <v>89.6825762491419</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K46" t="n">
-        <v>319.2383682279781</v>
+        <v>319.238368227978</v>
       </c>
       <c r="L46" t="n">
-        <v>475.8017225619686</v>
+        <v>475.8017225619689</v>
       </c>
       <c r="M46" t="n">
         <v>520.3936629142326</v>
@@ -38189,7 +38189,7 @@
         <v>501.6566681222644</v>
       </c>
       <c r="O46" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P46" t="n">
         <v>394.4315932187724</v>
